--- a/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Text Level/TF Char.xlsx
+++ b/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Text Level/TF Char.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -31,613 +31,502 @@
     <t>relevance (R/I)</t>
   </si>
   <si>
+    <t>less!</t>
+  </si>
+  <si>
+    <t>less!bbook a b&amp;b in grases hostel ontions co-uba online. no reservation cos</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>save vf bhozor. best price guarantee. find great rands. royal eurtholl pan</t>
+  </si>
+  <si>
+    <t>rates.</t>
+  </si>
+  <si>
+    <t>rates. great rates.look in dublin airport, braston, tx.best rates or refund</t>
+  </si>
+  <si>
+    <t>online.</t>
+  </si>
+  <si>
+    <t>online. book hotels near hays, texas and save big!book a motel in alaforn, mi</t>
+  </si>
+  <si>
+    <t>islands.</t>
+  </si>
+  <si>
+    <t>islands. airportbook a hotel near villas, jeliste, ko rambon and save big!best</t>
+  </si>
+  <si>
+    <t>vietnam</t>
+  </si>
+  <si>
+    <t>vietnam ok to hall packagebook a hotel near stockport-sertealk, brunser.best</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>housea &amp;s apart. walk to transfers.book your hotel in bassejore online. no</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>dublin book uvilve hotel!book your hotel in rhulton tx online. no reservatio</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>guarantee vings on orlando.book an ybur hotel niagara falls. save up to 50% on</t>
+  </si>
+  <si>
+    <t>save v- ve yeather. best price guarantee.diffeir sea, reno. no reservation</t>
+  </si>
+  <si>
     <t>reservation</t>
   </si>
   <si>
-    <t>reservation costs. restbulling villa giebla hot springsburg, omaha.haddle is apar</t>
+    <t>reservation costs. great ratessave with expedia's price guarantee. plan your next</t>
+  </si>
+  <si>
+    <t>freeport.</t>
+  </si>
+  <si>
+    <t>freeport. save big on hotels in jeic, amsterdam.book at camppedian now!find and</t>
+  </si>
+  <si>
+    <t>suwanee</t>
+  </si>
+  <si>
+    <t>suwanee prgate deal, prague. best price guarantee.book your hotel in gulberg</t>
+  </si>
+  <si>
+    <t>zagreb</t>
+  </si>
+  <si>
+    <t>zagrebook gar rima, aiffe.raside hotel in barciza. save on this on six, wind</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>bookian greese golf island. best rates or refund tostatihoter hotelbook a</t>
+  </si>
+  <si>
+    <t>costs.</t>
+  </si>
+  <si>
+    <t>costs. nor staffondruas athens hotel, puerto. walk to new yorkbook a hotel n</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find on on lou out paris., moatenalsburg.hirador penola, busanna amenhamp.</t>
+  </si>
+  <si>
+    <t>book accagit gros city, green, fibi. no reservation costs. great rates.boo</t>
+  </si>
+  <si>
+    <t>davids</t>
+  </si>
+  <si>
+    <t>davidstelle, tstl. best price guarantee on hotels in targer.book your hotel</t>
+  </si>
+  <si>
+    <t>find oresprinoto hotels near un online.save with expedia's price guarantee</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great inbest rates or refund + $50 coupon. save big on hotels in giorpalees</t>
+  </si>
+  <si>
+    <t>newcastle</t>
+  </si>
+  <si>
+    <t>newcastlelbestes pangary, prague. ok. book your flight with free tredeshing in</t>
+  </si>
+  <si>
+    <t>save v-bboe, awama, torron. free parking and best rates or refund + $50 co</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>package blooks, carmen. best price guarantee.book your hotel in hong kongau,</t>
+  </si>
+  <si>
+    <t>hotels.</t>
+  </si>
+  <si>
+    <t>hotels. no reservation contiaf oftigann londorne mallester, helenave. get ins</t>
+  </si>
+  <si>
+    <t>big!</t>
+  </si>
+  <si>
+    <t>big!3-star griga hotel to the fountart. skivings pines on singer resort. g</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>hotels &amp; vivre-delporth. no reservation costs. great rates.book at grave hot</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>refund book your hotel in salishoos casifaxamoury onlinebook a tour in washi</t>
+  </si>
+  <si>
+    <t>greatimup b&amp;b. free 4didaya resorts.ne reservation costs. great rates for c</t>
+  </si>
+  <si>
+    <t>save ve veb alg-pt. rey avartide.book a hotel near grand hotel w/ packages</t>
+  </si>
+  <si>
+    <t>rates. nor reservation costs. great rates!best rates or refund + $50 coupon.</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>costarno booking. save big on hotels in tokyo. get nour hotel in lake trai</t>
+  </si>
+  <si>
+    <t>book accomire in/stic gires.book at imish guest au barcelonam bergen, miss</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>cheapenhest. no reservation costs. great rates.book your hotel in coral mac</t>
+  </si>
+  <si>
+    <t>online. zook, maras and access near bidgegesa, savannah. best price guarantee</t>
+  </si>
+  <si>
+    <t>site!</t>
+  </si>
+  <si>
+    <t>site! not reservation costs. great rates.best rates on the village hotel oo</t>
   </si>
   <si>
     <t>hotel</t>
   </si>
   <si>
-    <t>hotelh vees resort, azuli beach. no reservation costs. great rates.the gree</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>centralk bay resorts. book a 5-sboret hotel in naeom falls. shopping on site.</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>bookb ale crobe, virga, amsterdam. no reservation costs. great rates.book</t>
-  </si>
-  <si>
-    <t>refund</t>
-  </si>
-  <si>
-    <t>refundtbook on moston golwoon hotel, rome. no reservation costs. great rates</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>travelont no reservation costs. great rates!nova hotel, uall. best price gua</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price skcaskstow.grand palcalia beach resort. no reservation costs. great r</t>
-  </si>
-  <si>
-    <t>refundtnound hall hotel, kyoto. no reservation costs. great rates.book at so</t>
+    <t>hotels yomilfin tivilil. no reservation costs. great rates.book at hotel po</t>
+  </si>
+  <si>
+    <t>reservation costsbeat rates on jahoi all-inclusive. plan your next trip with expe</t>
+  </si>
+  <si>
+    <t>book accommodation in egie hotel, miami. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates.book notsa great tokyo, ta and save big!save up to</t>
+  </si>
+  <si>
+    <t>hotels &amp; vaudvilibio hotel bedilly asparisside wihmral dinberi center. save</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>rates yood a risbane hotel today!book a motel in fort maris, francisco. no</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>texasy bld. book luss road aladzesa reago casino.book at allenda weeos over</t>
+  </si>
+  <si>
+    <t>palace,</t>
+  </si>
+  <si>
+    <t>palace, vlanesbest presta bugford hotels.book your hotel in trueth online. no</t>
+  </si>
+  <si>
+    <t>hotels yorpano resert in san firf. no reservation costsbook at silver grand</t>
   </si>
   <si>
     <t>compare</t>
   </si>
   <si>
-    <t>compare reserv,t arch hotel, dublin. no reservation costs. great rates.chowne</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>best y. ort dimonia palace hotel. plan your next trip with expedia.best ra</t>
-  </si>
-  <si>
-    <t>newcastle</t>
-  </si>
-  <si>
-    <t>newcastletues resort keneag. best price guarantee.mauntair, saginux. no reserva</t>
-  </si>
-  <si>
-    <t>compare grantys hotel paskerdo, near albufeira. no reservation costs. great r</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>downtowns. no reservatio co comsga and prd barcelona beach &amp; hotel claringkorn</t>
-  </si>
-  <si>
-    <t>book ales.rick at the belwin hotel. beachfront retreat wa. save with exped</t>
+    <t>compares arlino. no reservation costs. great rates.chave on calistic shi reso</t>
+  </si>
+  <si>
+    <t>save v trbperviepo. best price guarantee! breakfast in kaphas ick, venice.</t>
+  </si>
+  <si>
+    <t>great on ldwoods. playa real airport shops!book at eis orlando. no reservat</t>
+  </si>
+  <si>
+    <t>hotels ang bar aad. golfing nearby.find and compare exclusive deals on hotel</t>
+  </si>
+  <si>
+    <t>book accommodation in sixtable eargo. no reservation costs. great rates.fi</t>
+  </si>
+  <si>
+    <t>motel</t>
+  </si>
+  <si>
+    <t>motel clalanda. save on montian ronos hot springs, sales, san francisco. sa</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>international tokyo. best price guarantee!book a hotel near tramacan row all sunsbu</t>
+  </si>
+  <si>
+    <t>reservation costs. great ratessave with expedia's price guarantee book a packace</t>
+  </si>
+  <si>
+    <t>hotels yorparton, oma, beiro. no reservation costs. great rates.save with e</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>london on leulu. tennis on angel more. great deals on vacations.lyd-on-fayne</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>bigion. now on gobid's beach, switzer. get instant confirmation.book at a</t>
+  </si>
+  <si>
+    <t>hotel,</t>
+  </si>
+  <si>
+    <t>hotel, in paris. no reservation costs. great rates.book a hostel in colorado</t>
+  </si>
+  <si>
+    <t>hotels &amp; great rates on sigheise at mighees international pard beach, miami</t>
+  </si>
+  <si>
+    <t>book accommodation+ grade island. no reservation costs. great rates.book y</t>
+  </si>
+  <si>
+    <t>rates. great rates.dulubla, ohingtons - city motel, south field. no reservat</t>
+  </si>
+  <si>
+    <t>book a piri, island. no reservation costs. great rates.find and compare ex</t>
+  </si>
+  <si>
+    <t>online.book accommodation in hawtnvil-thipore online. no reservation costs. g</t>
+  </si>
+  <si>
+    <t>kangaroo</t>
+  </si>
+  <si>
+    <t>kangaroo% for tho biltier, arch more!book at son riviera beach and pharasering</t>
+  </si>
+  <si>
+    <t>greatibook your hotel in araing on synerg, malia and save big!book a hostel</t>
+  </si>
+  <si>
+    <t>resorts.</t>
+  </si>
+  <si>
+    <t>resorts. netnonklands minute hotels.book a b&amp;b in dun anants, london. quick, e</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>all bulo!find and compare exclusive deals on hotels in garseet maru syrey</t>
+  </si>
+  <si>
+    <t>save v-lbbbon by morgabook at oslo bar hotel, bristed. no reservation cost</t>
+  </si>
+  <si>
+    <t>book accommodation in booking. no reservation costs.book at balpin hotel,</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>secures. ne provilly resort &amp; save modebere. book your flight &amp; save more.bo</t>
+  </si>
+  <si>
+    <t>save v-f rotaw-tora. plan your next trip with expedia.best rates or refund</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>couponfags. book a great vallarta al reden house, dubrovnes. no reservation</t>
+  </si>
+  <si>
+    <t>deals</t>
+  </si>
+  <si>
+    <t>deals bluspa frente.drlig vere airportfind and compare exclusive deals on h</t>
+  </si>
+  <si>
+    <t>book andelligg hotel obibi hotel. free bargers sea carmer, gristown. great</t>
+  </si>
+  <si>
+    <t>hotel, intel. get instant confirmation.playa montreal hotel, forkel inn &amp; su</t>
+  </si>
+  <si>
+    <t>great ntar spa bearh wien-ix gry addisseif, fax. get instant confirmation.b</t>
+  </si>
+  <si>
+    <t>costs. no reservation costs. great rates.book a 5-star hotel in barsonville.</t>
+  </si>
+  <si>
+    <t>book accommodation in bwore. no reservation costs. great rates.more choice</t>
+  </si>
+  <si>
+    <t>save v trve beal! plazati a al haven, barerica.book your hotel in missium</t>
+  </si>
+  <si>
+    <t>compares and no rese-gutes resvation.best rates or refund + $50 coupon. book</t>
+  </si>
+  <si>
+    <t>great great spa scorf, gardens. best price guaranteebest rates on hotel apa</t>
+  </si>
+  <si>
+    <t>rates on vacation hotel white-aka airport.save now on your croirs avavidan</t>
+  </si>
+  <si>
+    <t>bigksat. book cheap grand isabet, katri airport. book noffer, belgiustage</t>
+  </si>
+  <si>
+    <t>hotels in-pang seminyak, bross. no reservation costs. great rates.book at ro</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates.book your hotel in shellit healdering north. save</t>
+  </si>
+  <si>
+    <t>book atigic cliogge.book triver inn, isleo, costa save big!inviana car k c</t>
+  </si>
+  <si>
+    <t>save vqbo $233 hotels.book at reykhave tid and hotel, lagy. no reservation</t>
   </si>
   <si>
     <t>coupon.</t>
   </si>
   <si>
-    <t>coupon. expedia guaralt save big on hotels in botanega, ontario and save big!</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>internationals reserve chitias to-shops - all inclusive hotels. near holve arena, s</t>
-  </si>
-  <si>
-    <t>4-star</t>
-  </si>
-  <si>
-    <t>4-start onlinena resort &amp; restaurant, estes apartments montler, pa online. n</t>
-  </si>
-  <si>
-    <t>prices,</t>
-  </si>
-  <si>
-    <t>prices,book a cyt + the key west. best price guarantee.sundaren inn, madenzna</t>
-  </si>
-  <si>
-    <t>trusted.</t>
-  </si>
-  <si>
-    <t>trusted. save on univomes hotel today!best rates or refund +$50 coupon. book y</t>
-  </si>
-  <si>
-    <t>japan.</t>
-  </si>
-  <si>
-    <t>japan. no reservation costs. great rates.book at cardivos, close and louis o</t>
-  </si>
-  <si>
-    <t>rates.</t>
-  </si>
-  <si>
-    <t>rates. get expedia's price guarantee.book your hotel in new orleans, pa onli</t>
-  </si>
-  <si>
-    <t>book aleptia resort with castersedremo. save up to 50% on your reservation</t>
-  </si>
-  <si>
-    <t>rates. great ratel.book at the bell sebeck, st peterpark. no reservation cos</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>coupon expedia best price guarantee.book your hotel in crescemboure diego wa</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>greatik. no reservation costobook at the royal bangkok hotel accramo, chica</t>
-  </si>
-  <si>
-    <t>best younseeberge ramboe. great rates flight with expedia.get the expedia</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>flight topos barcelona hotels.best rates or refund + $50 coupon. find hotels</t>
-  </si>
-  <si>
-    <t>rates.nd packanemary island nerras, pauch. no reservation costs. great rates</t>
-  </si>
-  <si>
-    <t>online.</t>
-  </si>
-  <si>
-    <t>online. no reservation sattes ibiza resort, chester. no reservation costs. g</t>
-  </si>
-  <si>
-    <t>reservation !sthney dublin inn &amp; suites rome. fampleheverination to reservate bre</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>energy mataball at timmi, austria today!coxpry hotels in koh petersbury cent</t>
-  </si>
-  <si>
-    <t>greatindan + your package resort calistura, rome.save with expedia's price</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>saveboakyboar hotel today!more choices, eavel uranade family.3.5-star maya</t>
-  </si>
-  <si>
-    <t>rates. no reservatiovvttowen.mooler hotel. beach crossing near new grosse ai</t>
-  </si>
-  <si>
-    <t>hotels</t>
-  </si>
-  <si>
-    <t>hotels the centrif hotels near graradena. save up to 50% on your reservation</t>
-  </si>
-  <si>
-    <t>reservation !find on bowrence hotel. pedsupshire cross sedona and save big!find a</t>
-  </si>
-  <si>
-    <t>saveboar resort and tower, china. no reservation costs. great rates.book a</t>
-  </si>
-  <si>
-    <t>less!</t>
-  </si>
-  <si>
-    <t>less! great ratesbook an apa canabad residence, west. no reservation costs.</t>
-  </si>
-  <si>
-    <t>hotel+ - 225,000 r, horanston palace. no reservation costs. great rates!lap</t>
-  </si>
-  <si>
-    <t>greatindi cownged 10 bere palma palace. pile shores vietre gardens!best rat</t>
+    <t>coupon.houpon, orenter deals at edmonton, london. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>hotels yorpo hotel, bassa. no reservation costs. great rates.resorts world</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>north hotels.book at ceptness reside hotel, san jevenic s on shulbaineburge</t>
+  </si>
+  <si>
+    <t>book accommodation in dumingsing. no reservation costs. great rates.book a</t>
+  </si>
+  <si>
+    <t>costs. no hotelybook at ranche, myrtle:burg, seoul. no reservation costs. gr</t>
+  </si>
+  <si>
+    <t>refund banffer, beniken. no reservation costs. great rates.book a hostel in</t>
+  </si>
+  <si>
+    <t>book accommodation in georgia.best rates or refund + $50 coupon. avtan pac</t>
   </si>
   <si>
     <t>mansions</t>
   </si>
   <si>
-    <t>mansions island, and etta. no reservation costs. great rates.maunabergrouse su</t>
-  </si>
-  <si>
-    <t>rates.no renesley a eados resort, kexwic, saint austin. no reservation costs</t>
-  </si>
-  <si>
-    <t>book alsal pacipboard now.boutiquico airport watley kalance today!book hot</t>
-  </si>
-  <si>
-    <t>suwanee</t>
-  </si>
-  <si>
-    <t>suwanee, stockwid. no reservation costs. great rates.club funlle hotel, car l</t>
-  </si>
-  <si>
-    <t>costs.</t>
-  </si>
-  <si>
-    <t>costs. great rates.book your hotel in da life mo online. no reservation cost</t>
-  </si>
-  <si>
-    <t>shuttle</t>
-  </si>
-  <si>
-    <t>shuttle mexice and semuis westang comur in jerusalem, brookland. no reservati</t>
-  </si>
-  <si>
-    <t>brighton,</t>
-  </si>
-  <si>
-    <t>brighton, invel. no reservation costs. great rates!cheap hotels in honolu-priva</t>
-  </si>
-  <si>
-    <t>bookalt intson lisbong airport airportno reservation costs. great rates! b</t>
-  </si>
-  <si>
-    <t>savebyboach hotel today!best rates or refund + $50 coupon. book your natio</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>londone fimmiter hotel book now!secure value with expedias price guarantee.</t>
-  </si>
-  <si>
-    <t>hotel,</t>
-  </si>
-  <si>
-    <t>hotel, dunca bay nassaut and sun savibest rates or refund +$50 coupon. taupu</t>
-  </si>
-  <si>
-    <t>greatx.vilapo modern resorts to cabins, fl and save big!find and compare ex</t>
-  </si>
-  <si>
-    <t>best prices</t>
-  </si>
-  <si>
-    <t>best prices on and save big!find and compare exclusive deals on hotels in arene a</t>
-  </si>
-  <si>
-    <t>coupon. great rates. save big on hotel fondoor, myrtle beach, with republice.</t>
-  </si>
-  <si>
-    <t>reservation costs. get es serville hotel with choices, best prices, trusted. alpi</t>
+    <t>mansions &amp; lood staybook your hotel in cruise stadium ca. save big on tours &amp;</t>
+  </si>
+  <si>
+    <t>guarantee!</t>
+  </si>
+  <si>
+    <t>guarantee! book now!book at tenagego hotel, london. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>hotels. no reservation 2-kland in sedvire casino. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>rates. nor reservation costs. great rates!deals on things to do in bhamsterd</t>
+  </si>
+  <si>
+    <t>georges</t>
+  </si>
+  <si>
+    <t>georges gpens, fernet more wateridolla. best price guarantee.book at dabit la</t>
   </si>
   <si>
     <t>choices,</t>
   </si>
   <si>
-    <t>choices, - forvegiel. best price guarantee! book your hotel in seattlebest rat</t>
-  </si>
-  <si>
-    <t>vietnam</t>
-  </si>
-  <si>
-    <t>vietnam tody.book at savings bar hotel, santiago, athens ct online. no reserv</t>
-  </si>
-  <si>
-    <t>airport,</t>
-  </si>
-  <si>
-    <t>airport, . hotels!drums rides - solville barcelona tx hotel &amp; reviews. compare</t>
-  </si>
-  <si>
-    <t>bookal! no reseup.get easye hotel el suites, broadwick on site.offir atlan</t>
-  </si>
-  <si>
-    <t>bookeals price guarantee! book a holiday hoapebest price guarantee! find d</t>
-  </si>
-  <si>
-    <t>north</t>
-  </si>
-  <si>
-    <t>northib.uence bansas beach, pennsylvent, la im, rapa. no reservation costs.</t>
-  </si>
-  <si>
-    <t>hotels now and packages. save big on hotels in longbots, italy. secure value</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>texast rode park central, barcelona. chaing du village inn, new york. no re</t>
-  </si>
-  <si>
-    <t>locations</t>
-  </si>
-  <si>
-    <t>locations central shopping hotel in lake lodge, walk to ma beach, maine. no res</t>
-  </si>
-  <si>
-    <t>online. gef chets bay whiteler, nioda. no reservation costs. great rates.choo</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>house bic - caicon, lisbon street.coxpan your norwich car hotels, florida.</t>
-  </si>
-  <si>
-    <t>online. great rates!h100 colieneda straltuauvery palm denas droodsmore churin</t>
-  </si>
-  <si>
-    <t>hotelh vee, glincen. best price guarantee! book your package to hopkowest p</t>
-  </si>
-  <si>
-    <t>motel</t>
-  </si>
-  <si>
-    <t>motel nerbery, liverpool, indiam. no reservation costs. great rates.book at</t>
-  </si>
-  <si>
-    <t>book alstacts castle, vietnace palm. no reservation costs. great rates.boo</t>
-  </si>
-  <si>
-    <t>reservation.</t>
-  </si>
-  <si>
-    <t>reservation.flom v. baivit feeshettles, edmonton. no reservation costs. great rate</t>
-  </si>
-  <si>
-    <t>save byd apartment in baine city. easy and save big!find exclusive deals o</t>
-  </si>
-  <si>
-    <t>kuala</t>
-  </si>
-  <si>
-    <t>kualand.san petala, san antonio. no reservation costs. great rates.book at</t>
-  </si>
-  <si>
-    <t>islands.</t>
-  </si>
-  <si>
-    <t>islands. star hotel de moni dary. best price guarantee.wathens las vegas near</t>
+    <t>choices, thang. no reservation costs. great rates.book at elize, hibe central</t>
+  </si>
+  <si>
+    <t>choices, great rates.in-arest galee katu carbarkmarket apartment. best price g</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>grand on resorts-nicket kings, kalkip. get instant confirmation.find and co</t>
+  </si>
+  <si>
+    <t>great intle no reservation costs. great rates!best rates or refund +$50 cou</t>
+  </si>
+  <si>
+    <t>costs. not ela-air tageyt hotels. by park garden, mc.hotel devonia hotel, pu</t>
+  </si>
+  <si>
+    <t>rates. nor reservation costs. great rates!iniro d'onge manuel alasting tago</t>
+  </si>
+  <si>
+    <t>save v trlen attractions.book a villa in woodbun, gift. no reservation cos</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shoppington. norre &amp; fajzen, brandonbook a cheap hotel in playa rockves online</t>
   </si>
   <si>
     <t>near</t>
   </si>
   <si>
-    <t>near stl, avender eadohe park, port auburg park. no reservation costs. gre</t>
-  </si>
-  <si>
-    <t>carnegie mellon university</t>
-  </si>
-  <si>
-    <t>carnegie mellon university online. no reservation costs. great rates.freekra cruises on the gran</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>rates. no reservatiovvttowine santorick onlige. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>greatx.no relicona hotels.best rates or refund + $50 coupon. hotels in banf</t>
-  </si>
-  <si>
-    <t>freeport.</t>
-  </si>
-  <si>
-    <t>freeport.book a topby hotels near vallartiik guesthouse a gate garden.book now</t>
-  </si>
-  <si>
-    <t>reservation !stany sap-onlard, near basermorlage. save big on hotels in pierre.mo</t>
-  </si>
-  <si>
-    <t>hull</t>
-  </si>
-  <si>
-    <t>hulle none - blankjeater beach, miami beach. no reservation costs. great r</t>
-  </si>
-  <si>
-    <t>compare great sant beach, fustano book your motels.save choicls, best price o</t>
-  </si>
-  <si>
-    <t>rates. 147,00+ hotels near central park pa.best rates or refund + $50 coupon</t>
-  </si>
-  <si>
-    <t>ambassador</t>
-  </si>
-  <si>
-    <t>ambassadordon's nace, venice. best price guarantee.bakirium athens, krass copper</t>
-  </si>
-  <si>
-    <t>kangaroo</t>
-  </si>
-  <si>
-    <t>kangarooys inn naples. best price guarantee.pearlworrd village greecebraverset</t>
-  </si>
-  <si>
-    <t>hotels.</t>
-  </si>
-  <si>
-    <t>hotels. # reavibicces, mryline. get expedia's great travel orlando, bosign.mo</t>
-  </si>
-  <si>
-    <t>refundt in west martighland. lowest price guarantee!droompallest albagwich c</t>
-  </si>
-  <si>
-    <t>hotel+ en anchorage melbourne from mountainselonter el sea.dest in miami be</t>
-  </si>
-  <si>
-    <t>portofino,</t>
-  </si>
-  <si>
-    <t>portofino, chriun. best price guarantee! salamiri view resort &amp; spa, nyc. no res</t>
-  </si>
-  <si>
-    <t>savebook at hotel parligliz, holyok. no reservation costs. great rates.gra</t>
-  </si>
-  <si>
-    <t>hotels nome - las villatt resort, canilly. no reservation costs. great rates</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bige yowppoo risco banff airport today!best rates or refund +$50 coupon.</t>
-  </si>
-  <si>
-    <t>negril</t>
-  </si>
-  <si>
-    <t>negrils tom scarbergle hotel today!best rates or refund + $50 coupon. book y</t>
-  </si>
-  <si>
-    <t>reservation cos.s. great rates!modalli mont-tremmer's hotel waterbook at grand ug</t>
-  </si>
-  <si>
-    <t>greatid. no reservation costs. great rates.book a motel in cairns casino or</t>
-  </si>
-  <si>
-    <t>bookal prict.search aves resort, izglos, salta. no reservation costs. grea</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shopping restat/ant mkon.boardwalk, wembley amsterdambe, niagara wall. no rese</t>
-  </si>
-  <si>
-    <t>hotelh virnes palace, romon. no reservation costs. great rates!the isla muj</t>
-  </si>
-  <si>
-    <t>panoramic</t>
-  </si>
-  <si>
-    <t>panoramicg kyburg hotel club, los alexu. no reservation costs. great rates.carl</t>
-  </si>
-  <si>
-    <t>zagreb</t>
-  </si>
-  <si>
-    <t>zagreb.fand restaurant and bungaluce t river, cambrith . no reservation cost</t>
-  </si>
-  <si>
-    <t>book aleprand!discounts on things to do in salt falls, near south waikik,</t>
-  </si>
-  <si>
-    <t>georges</t>
-  </si>
-  <si>
-    <t>georges.book your area deals on hotels in city beach.exclubbook your accommod</t>
-  </si>
-  <si>
-    <t>saveboear hotel 533ccomnddafforad. hotel stralk hotel, al camel. no reserv</t>
-  </si>
-  <si>
-    <t>site!</t>
-  </si>
-  <si>
-    <t>site!decpratiorinness, sandfront hotel adalamatoon. no reservation costs. g</t>
-  </si>
-  <si>
-    <t>japan. spa, los angeles airport, ri. no reservation costs. great rates.presa</t>
-  </si>
-  <si>
-    <t>travelion cebbourge, kyoto. no reservation costs. great rates.hotel carlton</t>
-  </si>
-  <si>
-    <t>reservation !sdly boutique hotel nyc, jumbelledja. no reservation costs. great ra</t>
-  </si>
-  <si>
-    <t>reservation !ofl on the best rates on this perville bank airport25 hotels near he</t>
-  </si>
-  <si>
-    <t>greatf.viebook a villa in phoenix, riviera maya, krainsbrudgeou, graz. no r</t>
-  </si>
-  <si>
-    <t>bookal trapiba.save on stay le-lincoln hotel. book the hotels new york sou</t>
-  </si>
-  <si>
-    <t>ratesnnd 10 rancho, hydil it. no reservation costs. great rates.ari varanso</t>
-  </si>
-  <si>
-    <t>prices,book your hobie fe gsune. no reservation costs. great rates.book at at</t>
-  </si>
-  <si>
-    <t>refundebest price guarantee! book the niodhoboc'h airport hotels.save with e</t>
-  </si>
-  <si>
-    <t>nina</t>
-  </si>
-  <si>
-    <t>nina vace vhilbert brent at tarling, zermisster, st petta valley beach. no</t>
-  </si>
-  <si>
-    <t>villa</t>
-  </si>
-  <si>
-    <t>villawew. no reservation costs. great rates.book a motel in korana, greeven</t>
-  </si>
-  <si>
-    <t>greatind stad &amp; windsor, kunkslis bangkok airport25 hotels near seonanos mo</t>
-  </si>
-  <si>
-    <t>hostel.</t>
-  </si>
-  <si>
-    <t>hostel. bernstapp townedge junesial, paris. no reservation costs. great rates</t>
-  </si>
-  <si>
-    <t>hotel, gjoon.hotel berlin hotel, genever. best price guarantee.angking silk-</t>
-  </si>
-  <si>
-    <t>reservation !find at a hotel when you book mushigonnavanna.more choices, low pric</t>
-  </si>
-  <si>
-    <t>reservation !fiscela centurien. new york hotel dealsvillin, san francisc. no rese</t>
-  </si>
-  <si>
-    <t>costs. great rates.book your sontar across, northectle daiford, da walton. n</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>grandi!seapan fame hotels near veriemur templa.secure value with expedia's</t>
-  </si>
-  <si>
-    <t>dublin</t>
-  </si>
-  <si>
-    <t>dublines hotels. save on parkshotel canalpara house.laige beach resort!book</t>
-  </si>
-  <si>
-    <t>expedia</t>
-  </si>
-  <si>
-    <t>expediat book ap island, bgn las vegas forpur.eco-friendly orlando hook, amst</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>frees in book on expedia today &amp; save!save on this la maya olas inn, del-m</t>
-  </si>
-  <si>
-    <t>greatx.lowes &amp; beachfront resort with 5 restaurants and full-service spa. s</t>
-  </si>
-  <si>
-    <t>online. great hotel rave on hotels in narmouth. lowest price guarantee!book l</t>
-  </si>
-  <si>
-    <t>accommodations</t>
-  </si>
-  <si>
-    <t>accommodations in bar 407 incnetta fietrier online. no reservation costs. great rate</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>secure tupsy!best rates or refund + $50 coupon. save on hotels in awan. plan</t>
-  </si>
-  <si>
-    <t>bookalt insaxc city. no reservation costs. great rates.grand hotel janedul</t>
+    <t>near 5ttorro bostoc hotel boystanah. plan your next trip with expedia.lak</t>
+  </si>
+  <si>
+    <t>great berseats. plan your trip with expedia.the a prohagston, rip.book grea</t>
+  </si>
+  <si>
+    <t>rates yor refurton resorts island, punta cana, india!book hotels near d'arm</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates.book your hotel in eden river pa onlige tri, austr</t>
+  </si>
+  <si>
+    <t>great berseater. retunite, new york.aviva, san astral. secure vaceater for</t>
+  </si>
+  <si>
+    <t>secures on prag beach hotels. save big on hotels in osaka.the center, seefom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -676,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -697,9 +586,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -764,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <v>303.291966</v>
+        <v>67.9205393</v>
       </c>
     </row>
     <row r="3">
@@ -778,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <v>55.5321279</v>
+        <v>76.0750633</v>
       </c>
     </row>
     <row r="4">
@@ -792,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <v>77.6358697</v>
+        <v>60.5539473</v>
       </c>
     </row>
     <row r="5">
@@ -806,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>53.0667526</v>
+        <v>77.5737082</v>
       </c>
     </row>
     <row r="6">
@@ -820,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>44.0087936</v>
+        <v>72.7627002</v>
       </c>
     </row>
     <row r="7">
@@ -834,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <v>46.691071</v>
+        <v>137.454117</v>
       </c>
     </row>
     <row r="8">
@@ -848,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <v>73.5553791</v>
+        <v>57.3196228</v>
       </c>
     </row>
     <row r="9">
@@ -856,13 +742,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6">
-        <v>116.843487</v>
+        <v>62.3020194</v>
       </c>
     </row>
     <row r="10">
@@ -870,13 +756,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6">
-        <v>95.4805186</v>
+        <v>75.7149168</v>
       </c>
     </row>
     <row r="11">
@@ -884,13 +770,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="6">
-        <v>103.382928</v>
+        <v>62.8686317</v>
       </c>
     </row>
     <row r="12">
@@ -904,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="6">
-        <v>61.1199768</v>
+        <v>73.8904119</v>
       </c>
     </row>
     <row r="13">
@@ -912,13 +798,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6">
-        <v>59.481799</v>
+        <v>54.1708853</v>
       </c>
     </row>
     <row r="14">
@@ -926,13 +812,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6">
-        <v>117.014262</v>
+        <v>54.907226</v>
       </c>
     </row>
     <row r="15">
@@ -940,13 +826,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6">
-        <v>105.521889</v>
+        <v>60.3465515</v>
       </c>
     </row>
     <row r="16">
@@ -954,13 +840,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6">
-        <v>62.7199858</v>
+        <v>65.6698947</v>
       </c>
     </row>
     <row r="17">
@@ -968,13 +854,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6">
-        <v>445.885102</v>
+        <v>98.1438042</v>
       </c>
     </row>
     <row r="18">
@@ -982,13 +868,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6">
-        <v>283.025677</v>
+        <v>93.6057276</v>
       </c>
     </row>
     <row r="19">
@@ -996,13 +882,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6">
-        <v>79.1032166</v>
+        <v>58.4394794</v>
       </c>
     </row>
     <row r="20">
@@ -1010,13 +896,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6">
-        <v>139.398084</v>
+        <v>44.9861635</v>
       </c>
     </row>
     <row r="21">
@@ -1024,13 +910,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="6">
-        <v>152.025917</v>
+        <v>102.329955</v>
       </c>
     </row>
     <row r="22">
@@ -1044,21 +930,21 @@
         <v>44</v>
       </c>
       <c r="D22" s="6">
-        <v>93.9095536</v>
+        <v>41.2939036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="6">
-        <v>46.5844846</v>
+        <v>112.95902</v>
       </c>
     </row>
     <row r="24">
@@ -1066,13 +952,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="6">
-        <v>69.7233229</v>
+        <v>89.1812899</v>
       </c>
     </row>
     <row r="25">
@@ -1080,13 +966,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" s="6">
-        <v>54.7380897</v>
+        <v>66.6717557</v>
       </c>
     </row>
     <row r="26">
@@ -1094,13 +980,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="6">
-        <v>96.9310431</v>
+        <v>78.0381277</v>
       </c>
     </row>
     <row r="27">
@@ -1108,13 +994,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6">
-        <v>61.8276561</v>
+        <v>92.8179019</v>
       </c>
     </row>
     <row r="28">
@@ -1122,13 +1008,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6">
-        <v>190.48349</v>
+        <v>76.7277759</v>
       </c>
     </row>
     <row r="29">
@@ -1136,13 +1022,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6">
-        <v>40.9645193</v>
+        <v>47.1600785</v>
       </c>
     </row>
     <row r="30">
@@ -1150,13 +1036,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6">
-        <v>96.0908379</v>
+        <v>92.2446567</v>
       </c>
     </row>
     <row r="31">
@@ -1164,13 +1050,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6">
-        <v>153.548457</v>
+        <v>95.4724593</v>
       </c>
     </row>
     <row r="32">
@@ -1178,13 +1064,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="6">
-        <v>198.396691</v>
+        <v>50.8789416</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1078,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" s="6">
-        <v>91.1636576</v>
+        <v>55.20148</v>
       </c>
     </row>
     <row r="34">
@@ -1206,13 +1092,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="6">
-        <v>133.978081</v>
+        <v>94.1640639</v>
       </c>
     </row>
     <row r="35">
@@ -1220,13 +1106,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" s="6">
-        <v>350.403532</v>
+        <v>59.8364014</v>
       </c>
     </row>
     <row r="36">
@@ -1234,13 +1120,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6">
-        <v>55.5024745</v>
+        <v>79.1706846</v>
       </c>
     </row>
     <row r="37">
@@ -1248,13 +1134,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D37" s="6">
-        <v>93.9108579</v>
+        <v>55.8208725</v>
       </c>
     </row>
     <row r="38">
@@ -1262,13 +1148,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6">
-        <v>24.5552943</v>
+        <v>48.305562</v>
       </c>
     </row>
     <row r="39">
@@ -1276,13 +1162,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D39" s="6">
-        <v>86.468963</v>
+        <v>68.6134874</v>
       </c>
     </row>
     <row r="40">
@@ -1290,13 +1176,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="6">
-        <v>61.6120888</v>
+        <v>40.2884024</v>
       </c>
     </row>
     <row r="41">
@@ -1304,13 +1190,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41" s="6">
-        <v>349.508795</v>
+        <v>54.3460244</v>
       </c>
     </row>
     <row r="42">
@@ -1318,13 +1204,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="6">
-        <v>76.1949192</v>
+        <v>64.7418815</v>
       </c>
     </row>
     <row r="43">
@@ -1332,13 +1218,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" s="6">
-        <v>86.5667772</v>
+        <v>54.84862</v>
       </c>
     </row>
     <row r="44">
@@ -1346,13 +1232,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D44" s="6">
-        <v>145.504493</v>
+        <v>122.783578</v>
       </c>
     </row>
     <row r="45">
@@ -1360,13 +1246,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D45" s="6">
-        <v>118.462934</v>
+        <v>53.5362619</v>
       </c>
     </row>
     <row r="46">
@@ -1374,13 +1260,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" s="6">
-        <v>87.7151946</v>
+        <v>78.8002403</v>
       </c>
     </row>
     <row r="47">
@@ -1388,13 +1274,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D47" s="6">
-        <v>97.4805353</v>
+        <v>59.3325108</v>
       </c>
     </row>
     <row r="48">
@@ -1402,13 +1288,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" s="6">
-        <v>40.5238455</v>
+        <v>100.999121</v>
       </c>
     </row>
     <row r="49">
@@ -1416,13 +1302,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D49" s="6">
-        <v>57.8614721</v>
+        <v>96.3977283</v>
       </c>
     </row>
     <row r="50">
@@ -1430,13 +1316,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D50" s="6">
-        <v>77.9432004</v>
+        <v>92.8465138</v>
       </c>
     </row>
     <row r="51">
@@ -1444,13 +1330,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D51" s="6">
-        <v>76.1343057</v>
+        <v>44.2106755</v>
       </c>
     </row>
     <row r="52">
@@ -1464,7 +1350,7 @@
         <v>89</v>
       </c>
       <c r="D52" s="6">
-        <v>123.378973</v>
+        <v>154.448863</v>
       </c>
     </row>
     <row r="53">
@@ -1472,13 +1358,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D53" s="6">
-        <v>252.850511</v>
+        <v>85.7641289</v>
       </c>
     </row>
     <row r="54">
@@ -1486,13 +1372,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="6">
-        <v>40.0972735</v>
+        <v>60.6160677</v>
       </c>
     </row>
     <row r="55">
@@ -1500,13 +1386,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="6">
-        <v>122.432457</v>
+        <v>60.6194966</v>
       </c>
     </row>
     <row r="56">
@@ -1514,13 +1400,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" s="6">
-        <v>152.260247</v>
+        <v>97.2135584</v>
       </c>
     </row>
     <row r="57">
@@ -1528,13 +1414,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D57" s="6">
-        <v>37.6383896</v>
+        <v>88.2147023</v>
       </c>
     </row>
     <row r="58">
@@ -1542,13 +1428,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D58" s="6">
-        <v>221.398168</v>
+        <v>62.8628092</v>
       </c>
     </row>
     <row r="59">
@@ -1556,13 +1442,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D59" s="6">
-        <v>190.040698</v>
+        <v>77.3245007</v>
       </c>
     </row>
     <row r="60">
@@ -1570,13 +1456,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D60" s="6">
-        <v>57.5548004</v>
+        <v>82.5143533</v>
       </c>
     </row>
     <row r="61">
@@ -1584,13 +1470,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D61" s="6">
-        <v>142.992641</v>
+        <v>97.1569645</v>
       </c>
     </row>
     <row r="62">
@@ -1598,13 +1484,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D62" s="6">
-        <v>82.7645852</v>
+        <v>48.8103755</v>
       </c>
     </row>
     <row r="63">
@@ -1612,13 +1498,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="6">
-        <v>49.3257522</v>
+        <v>56.3406024</v>
       </c>
     </row>
     <row r="64">
@@ -1626,13 +1512,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D64" s="6">
-        <v>957.230676</v>
+        <v>145.101253</v>
       </c>
     </row>
     <row r="65">
@@ -1640,13 +1526,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="6">
-        <v>351.604822</v>
+        <v>50.5799229</v>
       </c>
     </row>
     <row r="66">
@@ -1654,13 +1540,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="6">
-        <v>61.6812775</v>
+        <v>95.2729537</v>
       </c>
     </row>
     <row r="67">
@@ -1668,13 +1554,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="D67" s="6">
-        <v>401.85195</v>
+        <v>62.4037265</v>
       </c>
     </row>
     <row r="68">
@@ -1682,13 +1568,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="6">
-        <v>106.866359</v>
+        <v>125.172686</v>
       </c>
     </row>
     <row r="69">
@@ -1696,13 +1582,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="6">
-        <v>99.3494898</v>
+        <v>49.6142367</v>
       </c>
     </row>
     <row r="70">
@@ -1710,13 +1596,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D70" s="6">
-        <v>48.865564</v>
+        <v>87.9126069</v>
       </c>
     </row>
     <row r="71">
@@ -1724,13 +1610,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="6">
-        <v>35.5948508</v>
+        <v>66.5522655</v>
       </c>
     </row>
     <row r="72">
@@ -1738,13 +1624,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D72" s="6">
-        <v>183.432652</v>
+        <v>75.4343238</v>
       </c>
     </row>
     <row r="73">
@@ -1752,13 +1638,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D73" s="6">
-        <v>122.439942</v>
+        <v>86.4077847</v>
       </c>
     </row>
     <row r="74">
@@ -1766,13 +1652,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D74" s="6">
-        <v>48.4535708</v>
+        <v>82.6857118</v>
       </c>
     </row>
     <row r="75">
@@ -1780,13 +1666,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D75" s="6">
-        <v>420.412766</v>
+        <v>140.535853</v>
       </c>
     </row>
     <row r="76">
@@ -1794,13 +1680,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D76" s="6">
-        <v>79.2518125</v>
+        <v>100.725497</v>
       </c>
     </row>
     <row r="77">
@@ -1808,13 +1694,13 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D77" s="6">
-        <v>288.030216</v>
+        <v>54.0432959</v>
       </c>
     </row>
     <row r="78">
@@ -1822,13 +1708,13 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D78" s="6">
-        <v>41.6608897</v>
+        <v>44.2106755</v>
       </c>
     </row>
     <row r="79">
@@ -1836,13 +1722,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D79" s="6">
-        <v>99.3238838</v>
+        <v>75.4570611</v>
       </c>
     </row>
     <row r="80">
@@ -1850,13 +1736,13 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D80" s="6">
-        <v>217.306938</v>
+        <v>46.8726697</v>
       </c>
     </row>
     <row r="81">
@@ -1864,13 +1750,13 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D81" s="6">
-        <v>43.9513809</v>
+        <v>46.9555941</v>
       </c>
     </row>
     <row r="82">
@@ -1878,13 +1764,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D82" s="6">
-        <v>116.806381</v>
+        <v>57.6634601</v>
       </c>
     </row>
     <row r="83">
@@ -1892,13 +1778,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D83" s="6">
-        <v>90.94703</v>
+        <v>82.1446489</v>
       </c>
     </row>
     <row r="84">
@@ -1906,13 +1792,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D84" s="6">
-        <v>79.260099</v>
+        <v>58.5658479</v>
       </c>
     </row>
     <row r="85">
@@ -1920,13 +1806,13 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D85" s="6">
-        <v>163.565148</v>
+        <v>41.799741</v>
       </c>
     </row>
     <row r="86">
@@ -1934,13 +1820,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D86" s="6">
-        <v>94.3097124</v>
+        <v>176.62544</v>
       </c>
     </row>
     <row r="87">
@@ -1948,13 +1834,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D87" s="6">
-        <v>190.030964</v>
+        <v>62.9425417</v>
       </c>
     </row>
     <row r="88">
@@ -1962,13 +1848,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D88" s="6">
-        <v>154.571667</v>
+        <v>58.0971841</v>
       </c>
     </row>
     <row r="89">
@@ -1976,13 +1862,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D89" s="6">
-        <v>611.862741</v>
+        <v>68.0414078</v>
       </c>
     </row>
     <row r="90">
@@ -1990,13 +1876,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D90" s="6">
-        <v>170.920854</v>
+        <v>134.878415</v>
       </c>
     </row>
     <row r="91">
@@ -2004,13 +1890,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D91" s="6">
-        <v>45.5387559</v>
+        <v>39.3955343</v>
       </c>
     </row>
     <row r="92">
@@ -2018,13 +1904,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D92" s="6">
-        <v>65.1337975</v>
+        <v>91.6094834</v>
       </c>
     </row>
     <row r="93">
@@ -2032,13 +1918,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D93" s="6">
-        <v>319.105015</v>
+        <v>51.8373027</v>
       </c>
     </row>
     <row r="94">
@@ -2046,13 +1932,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D94" s="6">
-        <v>208.434792</v>
+        <v>48.1843559</v>
       </c>
     </row>
     <row r="95">
@@ -2060,13 +1946,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D95" s="6">
-        <v>58.9133885</v>
+        <v>85.0134389</v>
       </c>
     </row>
     <row r="96">
@@ -2074,13 +1960,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D96" s="6">
-        <v>50.0872675</v>
+        <v>56.3949719</v>
       </c>
     </row>
     <row r="97">
@@ -2088,13 +1974,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D97" s="6">
-        <v>57.0313307</v>
+        <v>43.1439395</v>
       </c>
     </row>
     <row r="98">
@@ -2102,13 +1988,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D98" s="6">
-        <v>262.133083</v>
+        <v>67.8169743</v>
       </c>
     </row>
     <row r="99">
@@ -2116,13 +2002,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D99" s="6">
-        <v>70.7440599</v>
+        <v>103.756687</v>
       </c>
     </row>
     <row r="100">
@@ -2130,13 +2016,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D100" s="6">
-        <v>58.2641576</v>
+        <v>72.1129187</v>
       </c>
     </row>
     <row r="101">
@@ -2144,13 +2030,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D101" s="6">
-        <v>127.21804</v>
+        <v>76.5768013</v>
       </c>
     </row>
     <row r="102">
@@ -2158,13 +2044,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D102" s="6">
-        <v>159.540976</v>
+        <v>117.940099</v>
       </c>
     </row>
     <row r="103">
@@ -2172,13 +2058,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D103" s="6">
-        <v>64.5927363</v>
+        <v>43.7174446</v>
       </c>
     </row>
     <row r="104">
@@ -2186,13 +2072,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D104" s="6">
-        <v>95.5312467</v>
+        <v>111.788339</v>
       </c>
     </row>
     <row r="105">
@@ -2200,13 +2086,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D105" s="6">
-        <v>99.7075959</v>
+        <v>102.825081</v>
       </c>
     </row>
     <row r="106">
@@ -2214,13 +2100,13 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D106" s="6">
-        <v>87.2813559</v>
+        <v>72.8536341</v>
       </c>
     </row>
     <row r="107">
@@ -2228,13 +2114,13 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D107" s="6">
-        <v>92.6261415</v>
+        <v>67.6838561</v>
       </c>
     </row>
     <row r="108">
@@ -2242,13 +2128,13 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D108" s="6">
-        <v>48.3094152</v>
+        <v>80.3917982</v>
       </c>
     </row>
     <row r="109">
@@ -2256,13 +2142,13 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D109" s="6">
-        <v>47.2010547</v>
+        <v>74.9875612</v>
       </c>
     </row>
     <row r="110">
@@ -2270,13 +2156,13 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D110" s="6">
-        <v>205.261189</v>
+        <v>96.9275137</v>
       </c>
     </row>
     <row r="111">
@@ -2284,13 +2170,13 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D111" s="6">
-        <v>107.061137</v>
+        <v>88.863468</v>
       </c>
     </row>
     <row r="112">
@@ -2298,13 +2184,13 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D112" s="6">
-        <v>86.376001</v>
+        <v>106.524506</v>
       </c>
     </row>
     <row r="113">
@@ -2312,2666 +2198,2207 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D113" s="6">
-        <v>58.8160042</v>
+        <v>56.1086979</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="4">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D114" s="6">
-        <v>158.337319</v>
-      </c>
+      <c r="A114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="4">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D115" s="6">
-        <v>166.3643</v>
-      </c>
+      <c r="A115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="4">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D116" s="6">
-        <v>55.9201611</v>
-      </c>
+      <c r="A116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="4">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D117" s="6">
-        <v>125.770633</v>
-      </c>
+      <c r="A117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="4">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D118" s="6">
-        <v>46.0055618</v>
-      </c>
+      <c r="A118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="4">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="6">
-        <v>113.503242</v>
-      </c>
+      <c r="A119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="4">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="6">
-        <v>65.5202355</v>
-      </c>
+      <c r="A120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="4">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D121" s="6">
-        <v>102.467549</v>
-      </c>
+      <c r="A121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="4">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D122" s="6">
-        <v>228.249691</v>
-      </c>
+      <c r="A122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="4">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D123" s="6">
-        <v>183.428001</v>
-      </c>
+      <c r="A123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D124" s="6">
-        <v>47.4382514</v>
-      </c>
+      <c r="A124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="4">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" s="6">
-        <v>183.7315</v>
-      </c>
+      <c r="A125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="4">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D126" s="6">
-        <v>147.600429</v>
-      </c>
+      <c r="A126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="4">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D127" s="6">
-        <v>415.034262</v>
-      </c>
+      <c r="A127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="4">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D128" s="6">
-        <v>142.606217</v>
-      </c>
+      <c r="A128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="4">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="6">
-        <v>169.514011</v>
-      </c>
+      <c r="A129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="4">
-        <v>129.0</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" s="6">
-        <v>88.920661</v>
-      </c>
+      <c r="A130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="4">
-        <v>130.0</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="6">
-        <v>52.1415455</v>
-      </c>
+      <c r="A131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="8"/>
+      <c r="A132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="8"/>
+      <c r="A133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="8"/>
+      <c r="A134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="8"/>
+      <c r="A135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="8"/>
+      <c r="A136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="8"/>
+      <c r="A137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="8"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="8"/>
+      <c r="A139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="8"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="8"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="8"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="8"/>
+      <c r="A143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="8"/>
+      <c r="A144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="8"/>
+      <c r="A145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="8"/>
+      <c r="A146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="8"/>
+      <c r="A147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="8"/>
+      <c r="A148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="8"/>
+      <c r="A149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="8"/>
+      <c r="A150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="8"/>
+      <c r="A151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="8"/>
+      <c r="A152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="8"/>
+      <c r="A153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="8"/>
+      <c r="A154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="8"/>
+      <c r="A155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="8"/>
+      <c r="A156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="8"/>
+      <c r="A157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="8"/>
+      <c r="A158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="8"/>
+      <c r="A159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="8"/>
+      <c r="A160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="8"/>
+      <c r="A161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="8"/>
+      <c r="A162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="8"/>
+      <c r="A163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="8"/>
+      <c r="A164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="8"/>
+      <c r="A165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="8"/>
+      <c r="A166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="8"/>
+      <c r="A167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="8"/>
+      <c r="A168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="8"/>
+      <c r="A169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="8"/>
+      <c r="A170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="8"/>
+      <c r="A171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="8"/>
+      <c r="A172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="8"/>
+      <c r="A173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="8"/>
+      <c r="A174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="8"/>
+      <c r="A175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="8"/>
+      <c r="A176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="8"/>
+      <c r="A177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="8"/>
+      <c r="A178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="8"/>
+      <c r="A179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="8"/>
+      <c r="A180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="8"/>
+      <c r="A181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="8"/>
+      <c r="A182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="8"/>
+      <c r="A183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="8"/>
+      <c r="A184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="8"/>
+      <c r="A185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="8"/>
+      <c r="A186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="8"/>
+      <c r="A187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="8"/>
+      <c r="A188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="8"/>
+      <c r="A189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="8"/>
+      <c r="A190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="8"/>
+      <c r="A191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="8"/>
+      <c r="A192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="8"/>
+      <c r="A193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="8"/>
+      <c r="A194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="8"/>
+      <c r="A195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="8"/>
+      <c r="A196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="8"/>
+      <c r="A197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="8"/>
+      <c r="A198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="8"/>
+      <c r="A199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="8"/>
+      <c r="A200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="8"/>
+      <c r="A201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="8"/>
+      <c r="A202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="8"/>
+      <c r="A203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="8"/>
+      <c r="A204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="8"/>
+      <c r="A205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="8"/>
+      <c r="A206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="8"/>
+      <c r="A207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="8"/>
+      <c r="A208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="8"/>
+      <c r="A209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="8"/>
+      <c r="A210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="8"/>
+      <c r="A211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="8"/>
+      <c r="A212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="8"/>
+      <c r="A213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="8"/>
+      <c r="A214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="8"/>
+      <c r="A215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="8"/>
+      <c r="A216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="8"/>
+      <c r="A217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="8"/>
+      <c r="A218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="8"/>
+      <c r="A219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="8"/>
+      <c r="A220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="8"/>
+      <c r="A221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="8"/>
+      <c r="A222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="8"/>
+      <c r="A223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="8"/>
+      <c r="A224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="8"/>
+      <c r="A225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="8"/>
+      <c r="A226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="8"/>
+      <c r="A227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="8"/>
+      <c r="A228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="8"/>
+      <c r="A229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="8"/>
+      <c r="A230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="8"/>
+      <c r="A231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="8"/>
+      <c r="A232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="8"/>
+      <c r="A233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="8"/>
+      <c r="A234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="8"/>
+      <c r="A235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="8"/>
+      <c r="A236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="8"/>
+      <c r="A237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="8"/>
+      <c r="A238" s="7"/>
     </row>
     <row r="239">
-      <c r="A239" s="8"/>
+      <c r="A239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="8"/>
+      <c r="A240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="8"/>
+      <c r="A241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="8"/>
+      <c r="A242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="8"/>
+      <c r="A243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="8"/>
+      <c r="A244" s="7"/>
     </row>
     <row r="245">
-      <c r="A245" s="8"/>
+      <c r="A245" s="7"/>
     </row>
     <row r="246">
-      <c r="A246" s="8"/>
+      <c r="A246" s="7"/>
     </row>
     <row r="247">
-      <c r="A247" s="8"/>
+      <c r="A247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="8"/>
+      <c r="A248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="8"/>
+      <c r="A249" s="7"/>
     </row>
     <row r="250">
-      <c r="A250" s="8"/>
+      <c r="A250" s="7"/>
     </row>
     <row r="251">
-      <c r="A251" s="8"/>
+      <c r="A251" s="7"/>
     </row>
     <row r="252">
-      <c r="A252" s="8"/>
+      <c r="A252" s="7"/>
     </row>
     <row r="253">
-      <c r="A253" s="8"/>
+      <c r="A253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="8"/>
+      <c r="A254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="8"/>
+      <c r="A255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="8"/>
+      <c r="A256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="8"/>
+      <c r="A257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="8"/>
+      <c r="A258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="8"/>
+      <c r="A259" s="7"/>
     </row>
     <row r="260">
-      <c r="A260" s="8"/>
+      <c r="A260" s="7"/>
     </row>
     <row r="261">
-      <c r="A261" s="8"/>
+      <c r="A261" s="7"/>
     </row>
     <row r="262">
-      <c r="A262" s="8"/>
+      <c r="A262" s="7"/>
     </row>
     <row r="263">
-      <c r="A263" s="8"/>
+      <c r="A263" s="7"/>
     </row>
     <row r="264">
-      <c r="A264" s="8"/>
+      <c r="A264" s="7"/>
     </row>
     <row r="265">
-      <c r="A265" s="8"/>
+      <c r="A265" s="7"/>
     </row>
     <row r="266">
-      <c r="A266" s="8"/>
+      <c r="A266" s="7"/>
     </row>
     <row r="267">
-      <c r="A267" s="8"/>
+      <c r="A267" s="7"/>
     </row>
     <row r="268">
-      <c r="A268" s="8"/>
+      <c r="A268" s="7"/>
     </row>
     <row r="269">
-      <c r="A269" s="8"/>
+      <c r="A269" s="7"/>
     </row>
     <row r="270">
-      <c r="A270" s="8"/>
+      <c r="A270" s="7"/>
     </row>
     <row r="271">
-      <c r="A271" s="8"/>
+      <c r="A271" s="7"/>
     </row>
     <row r="272">
-      <c r="A272" s="8"/>
+      <c r="A272" s="7"/>
     </row>
     <row r="273">
-      <c r="A273" s="8"/>
+      <c r="A273" s="7"/>
     </row>
     <row r="274">
-      <c r="A274" s="8"/>
+      <c r="A274" s="7"/>
     </row>
     <row r="275">
-      <c r="A275" s="8"/>
+      <c r="A275" s="7"/>
     </row>
     <row r="276">
-      <c r="A276" s="8"/>
+      <c r="A276" s="7"/>
     </row>
     <row r="277">
-      <c r="A277" s="8"/>
+      <c r="A277" s="7"/>
     </row>
     <row r="278">
-      <c r="A278" s="8"/>
+      <c r="A278" s="7"/>
     </row>
     <row r="279">
-      <c r="A279" s="8"/>
+      <c r="A279" s="7"/>
     </row>
     <row r="280">
-      <c r="A280" s="8"/>
+      <c r="A280" s="7"/>
     </row>
     <row r="281">
-      <c r="A281" s="8"/>
+      <c r="A281" s="7"/>
     </row>
     <row r="282">
-      <c r="A282" s="8"/>
+      <c r="A282" s="7"/>
     </row>
     <row r="283">
-      <c r="A283" s="8"/>
+      <c r="A283" s="7"/>
     </row>
     <row r="284">
-      <c r="A284" s="8"/>
+      <c r="A284" s="7"/>
     </row>
     <row r="285">
-      <c r="A285" s="8"/>
+      <c r="A285" s="7"/>
     </row>
     <row r="286">
-      <c r="A286" s="8"/>
+      <c r="A286" s="7"/>
     </row>
     <row r="287">
-      <c r="A287" s="8"/>
+      <c r="A287" s="7"/>
     </row>
     <row r="288">
-      <c r="A288" s="8"/>
+      <c r="A288" s="7"/>
     </row>
     <row r="289">
-      <c r="A289" s="8"/>
+      <c r="A289" s="7"/>
     </row>
     <row r="290">
-      <c r="A290" s="8"/>
+      <c r="A290" s="7"/>
     </row>
     <row r="291">
-      <c r="A291" s="8"/>
+      <c r="A291" s="7"/>
     </row>
     <row r="292">
-      <c r="A292" s="8"/>
+      <c r="A292" s="7"/>
     </row>
     <row r="293">
-      <c r="A293" s="8"/>
+      <c r="A293" s="7"/>
     </row>
     <row r="294">
-      <c r="A294" s="8"/>
+      <c r="A294" s="7"/>
     </row>
     <row r="295">
-      <c r="A295" s="8"/>
+      <c r="A295" s="7"/>
     </row>
     <row r="296">
-      <c r="A296" s="8"/>
+      <c r="A296" s="7"/>
     </row>
     <row r="297">
-      <c r="A297" s="8"/>
+      <c r="A297" s="7"/>
     </row>
     <row r="298">
-      <c r="A298" s="8"/>
+      <c r="A298" s="7"/>
     </row>
     <row r="299">
-      <c r="A299" s="8"/>
+      <c r="A299" s="7"/>
     </row>
     <row r="300">
-      <c r="A300" s="8"/>
+      <c r="A300" s="7"/>
     </row>
     <row r="301">
-      <c r="A301" s="8"/>
+      <c r="A301" s="7"/>
     </row>
     <row r="302">
-      <c r="A302" s="8"/>
+      <c r="A302" s="7"/>
     </row>
     <row r="303">
-      <c r="A303" s="8"/>
+      <c r="A303" s="7"/>
     </row>
     <row r="304">
-      <c r="A304" s="8"/>
+      <c r="A304" s="7"/>
     </row>
     <row r="305">
-      <c r="A305" s="8"/>
+      <c r="A305" s="7"/>
     </row>
     <row r="306">
-      <c r="A306" s="8"/>
+      <c r="A306" s="7"/>
     </row>
     <row r="307">
-      <c r="A307" s="8"/>
+      <c r="A307" s="7"/>
     </row>
     <row r="308">
-      <c r="A308" s="8"/>
+      <c r="A308" s="7"/>
     </row>
     <row r="309">
-      <c r="A309" s="8"/>
+      <c r="A309" s="7"/>
     </row>
     <row r="310">
-      <c r="A310" s="8"/>
+      <c r="A310" s="7"/>
     </row>
     <row r="311">
-      <c r="A311" s="8"/>
+      <c r="A311" s="7"/>
     </row>
     <row r="312">
-      <c r="A312" s="8"/>
+      <c r="A312" s="7"/>
     </row>
     <row r="313">
-      <c r="A313" s="8"/>
+      <c r="A313" s="7"/>
     </row>
     <row r="314">
-      <c r="A314" s="8"/>
+      <c r="A314" s="7"/>
     </row>
     <row r="315">
-      <c r="A315" s="8"/>
+      <c r="A315" s="7"/>
     </row>
     <row r="316">
-      <c r="A316" s="8"/>
+      <c r="A316" s="7"/>
     </row>
     <row r="317">
-      <c r="A317" s="8"/>
+      <c r="A317" s="7"/>
     </row>
     <row r="318">
-      <c r="A318" s="8"/>
+      <c r="A318" s="7"/>
     </row>
     <row r="319">
-      <c r="A319" s="8"/>
+      <c r="A319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
+      <c r="A320" s="7"/>
     </row>
     <row r="321">
-      <c r="A321" s="8"/>
+      <c r="A321" s="7"/>
     </row>
     <row r="322">
-      <c r="A322" s="8"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323">
-      <c r="A323" s="8"/>
+      <c r="A323" s="7"/>
     </row>
     <row r="324">
-      <c r="A324" s="8"/>
+      <c r="A324" s="7"/>
     </row>
     <row r="325">
-      <c r="A325" s="8"/>
+      <c r="A325" s="7"/>
     </row>
     <row r="326">
-      <c r="A326" s="8"/>
+      <c r="A326" s="7"/>
     </row>
     <row r="327">
-      <c r="A327" s="8"/>
+      <c r="A327" s="7"/>
     </row>
     <row r="328">
-      <c r="A328" s="8"/>
+      <c r="A328" s="7"/>
     </row>
     <row r="329">
-      <c r="A329" s="8"/>
+      <c r="A329" s="7"/>
     </row>
     <row r="330">
-      <c r="A330" s="8"/>
+      <c r="A330" s="7"/>
     </row>
     <row r="331">
-      <c r="A331" s="8"/>
+      <c r="A331" s="7"/>
     </row>
     <row r="332">
-      <c r="A332" s="8"/>
+      <c r="A332" s="7"/>
     </row>
     <row r="333">
-      <c r="A333" s="8"/>
+      <c r="A333" s="7"/>
     </row>
     <row r="334">
-      <c r="A334" s="8"/>
+      <c r="A334" s="7"/>
     </row>
     <row r="335">
-      <c r="A335" s="8"/>
+      <c r="A335" s="7"/>
     </row>
     <row r="336">
-      <c r="A336" s="8"/>
+      <c r="A336" s="7"/>
     </row>
     <row r="337">
-      <c r="A337" s="8"/>
+      <c r="A337" s="7"/>
     </row>
     <row r="338">
-      <c r="A338" s="8"/>
+      <c r="A338" s="7"/>
     </row>
     <row r="339">
-      <c r="A339" s="8"/>
+      <c r="A339" s="7"/>
     </row>
     <row r="340">
-      <c r="A340" s="8"/>
+      <c r="A340" s="7"/>
     </row>
     <row r="341">
-      <c r="A341" s="8"/>
+      <c r="A341" s="7"/>
     </row>
     <row r="342">
-      <c r="A342" s="8"/>
+      <c r="A342" s="7"/>
     </row>
     <row r="343">
-      <c r="A343" s="8"/>
+      <c r="A343" s="7"/>
     </row>
     <row r="344">
-      <c r="A344" s="8"/>
+      <c r="A344" s="7"/>
     </row>
     <row r="345">
-      <c r="A345" s="8"/>
+      <c r="A345" s="7"/>
     </row>
     <row r="346">
-      <c r="A346" s="8"/>
+      <c r="A346" s="7"/>
     </row>
     <row r="347">
-      <c r="A347" s="8"/>
+      <c r="A347" s="7"/>
     </row>
     <row r="348">
-      <c r="A348" s="8"/>
+      <c r="A348" s="7"/>
     </row>
     <row r="349">
-      <c r="A349" s="8"/>
+      <c r="A349" s="7"/>
     </row>
     <row r="350">
-      <c r="A350" s="8"/>
+      <c r="A350" s="7"/>
     </row>
     <row r="351">
-      <c r="A351" s="8"/>
+      <c r="A351" s="7"/>
     </row>
     <row r="352">
-      <c r="A352" s="8"/>
+      <c r="A352" s="7"/>
     </row>
     <row r="353">
-      <c r="A353" s="8"/>
+      <c r="A353" s="7"/>
     </row>
     <row r="354">
-      <c r="A354" s="8"/>
+      <c r="A354" s="7"/>
     </row>
     <row r="355">
-      <c r="A355" s="8"/>
+      <c r="A355" s="7"/>
     </row>
     <row r="356">
-      <c r="A356" s="8"/>
+      <c r="A356" s="7"/>
     </row>
     <row r="357">
-      <c r="A357" s="8"/>
+      <c r="A357" s="7"/>
     </row>
     <row r="358">
-      <c r="A358" s="8"/>
+      <c r="A358" s="7"/>
     </row>
     <row r="359">
-      <c r="A359" s="8"/>
+      <c r="A359" s="7"/>
     </row>
     <row r="360">
-      <c r="A360" s="8"/>
+      <c r="A360" s="7"/>
     </row>
     <row r="361">
-      <c r="A361" s="8"/>
+      <c r="A361" s="7"/>
     </row>
     <row r="362">
-      <c r="A362" s="8"/>
+      <c r="A362" s="7"/>
     </row>
     <row r="363">
-      <c r="A363" s="8"/>
+      <c r="A363" s="7"/>
     </row>
     <row r="364">
-      <c r="A364" s="8"/>
+      <c r="A364" s="7"/>
     </row>
     <row r="365">
-      <c r="A365" s="8"/>
+      <c r="A365" s="7"/>
     </row>
     <row r="366">
-      <c r="A366" s="8"/>
+      <c r="A366" s="7"/>
     </row>
     <row r="367">
-      <c r="A367" s="8"/>
+      <c r="A367" s="7"/>
     </row>
     <row r="368">
-      <c r="A368" s="8"/>
+      <c r="A368" s="7"/>
     </row>
     <row r="369">
-      <c r="A369" s="8"/>
+      <c r="A369" s="7"/>
     </row>
     <row r="370">
-      <c r="A370" s="8"/>
+      <c r="A370" s="7"/>
     </row>
     <row r="371">
-      <c r="A371" s="8"/>
+      <c r="A371" s="7"/>
     </row>
     <row r="372">
-      <c r="A372" s="8"/>
+      <c r="A372" s="7"/>
     </row>
     <row r="373">
-      <c r="A373" s="8"/>
+      <c r="A373" s="7"/>
     </row>
     <row r="374">
-      <c r="A374" s="8"/>
+      <c r="A374" s="7"/>
     </row>
     <row r="375">
-      <c r="A375" s="8"/>
+      <c r="A375" s="7"/>
     </row>
     <row r="376">
-      <c r="A376" s="8"/>
+      <c r="A376" s="7"/>
     </row>
     <row r="377">
-      <c r="A377" s="8"/>
+      <c r="A377" s="7"/>
     </row>
     <row r="378">
-      <c r="A378" s="8"/>
+      <c r="A378" s="7"/>
     </row>
     <row r="379">
-      <c r="A379" s="8"/>
+      <c r="A379" s="7"/>
     </row>
     <row r="380">
-      <c r="A380" s="8"/>
+      <c r="A380" s="7"/>
     </row>
     <row r="381">
-      <c r="A381" s="8"/>
+      <c r="A381" s="7"/>
     </row>
     <row r="382">
-      <c r="A382" s="8"/>
+      <c r="A382" s="7"/>
     </row>
     <row r="383">
-      <c r="A383" s="8"/>
+      <c r="A383" s="7"/>
     </row>
     <row r="384">
-      <c r="A384" s="8"/>
+      <c r="A384" s="7"/>
     </row>
     <row r="385">
-      <c r="A385" s="8"/>
+      <c r="A385" s="7"/>
     </row>
     <row r="386">
-      <c r="A386" s="8"/>
+      <c r="A386" s="7"/>
     </row>
     <row r="387">
-      <c r="A387" s="8"/>
+      <c r="A387" s="7"/>
     </row>
     <row r="388">
-      <c r="A388" s="8"/>
+      <c r="A388" s="7"/>
     </row>
     <row r="389">
-      <c r="A389" s="8"/>
+      <c r="A389" s="7"/>
     </row>
     <row r="390">
-      <c r="A390" s="8"/>
+      <c r="A390" s="7"/>
     </row>
     <row r="391">
-      <c r="A391" s="8"/>
+      <c r="A391" s="7"/>
     </row>
     <row r="392">
-      <c r="A392" s="8"/>
+      <c r="A392" s="7"/>
     </row>
     <row r="393">
-      <c r="A393" s="8"/>
+      <c r="A393" s="7"/>
     </row>
     <row r="394">
-      <c r="A394" s="8"/>
+      <c r="A394" s="7"/>
     </row>
     <row r="395">
-      <c r="A395" s="8"/>
+      <c r="A395" s="7"/>
     </row>
     <row r="396">
-      <c r="A396" s="8"/>
+      <c r="A396" s="7"/>
     </row>
     <row r="397">
-      <c r="A397" s="8"/>
+      <c r="A397" s="7"/>
     </row>
     <row r="398">
-      <c r="A398" s="8"/>
+      <c r="A398" s="7"/>
     </row>
     <row r="399">
-      <c r="A399" s="8"/>
+      <c r="A399" s="7"/>
     </row>
     <row r="400">
-      <c r="A400" s="8"/>
+      <c r="A400" s="7"/>
     </row>
     <row r="401">
-      <c r="A401" s="8"/>
+      <c r="A401" s="7"/>
     </row>
     <row r="402">
-      <c r="A402" s="8"/>
+      <c r="A402" s="7"/>
     </row>
     <row r="403">
-      <c r="A403" s="8"/>
+      <c r="A403" s="7"/>
     </row>
     <row r="404">
-      <c r="A404" s="8"/>
+      <c r="A404" s="7"/>
     </row>
     <row r="405">
-      <c r="A405" s="8"/>
+      <c r="A405" s="7"/>
     </row>
     <row r="406">
-      <c r="A406" s="8"/>
+      <c r="A406" s="7"/>
     </row>
     <row r="407">
-      <c r="A407" s="8"/>
+      <c r="A407" s="7"/>
     </row>
     <row r="408">
-      <c r="A408" s="8"/>
+      <c r="A408" s="7"/>
     </row>
     <row r="409">
-      <c r="A409" s="8"/>
+      <c r="A409" s="7"/>
     </row>
     <row r="410">
-      <c r="A410" s="8"/>
+      <c r="A410" s="7"/>
     </row>
     <row r="411">
-      <c r="A411" s="8"/>
+      <c r="A411" s="7"/>
     </row>
     <row r="412">
-      <c r="A412" s="8"/>
+      <c r="A412" s="7"/>
     </row>
     <row r="413">
-      <c r="A413" s="8"/>
+      <c r="A413" s="7"/>
     </row>
     <row r="414">
-      <c r="A414" s="8"/>
+      <c r="A414" s="7"/>
     </row>
     <row r="415">
-      <c r="A415" s="8"/>
+      <c r="A415" s="7"/>
     </row>
     <row r="416">
-      <c r="A416" s="8"/>
+      <c r="A416" s="7"/>
     </row>
     <row r="417">
-      <c r="A417" s="8"/>
+      <c r="A417" s="7"/>
     </row>
     <row r="418">
-      <c r="A418" s="8"/>
+      <c r="A418" s="7"/>
     </row>
     <row r="419">
-      <c r="A419" s="8"/>
+      <c r="A419" s="7"/>
     </row>
     <row r="420">
-      <c r="A420" s="8"/>
+      <c r="A420" s="7"/>
     </row>
     <row r="421">
-      <c r="A421" s="8"/>
+      <c r="A421" s="7"/>
     </row>
     <row r="422">
-      <c r="A422" s="8"/>
+      <c r="A422" s="7"/>
     </row>
     <row r="423">
-      <c r="A423" s="8"/>
+      <c r="A423" s="7"/>
     </row>
     <row r="424">
-      <c r="A424" s="8"/>
+      <c r="A424" s="7"/>
     </row>
     <row r="425">
-      <c r="A425" s="8"/>
+      <c r="A425" s="7"/>
     </row>
     <row r="426">
-      <c r="A426" s="8"/>
+      <c r="A426" s="7"/>
     </row>
     <row r="427">
-      <c r="A427" s="8"/>
+      <c r="A427" s="7"/>
     </row>
     <row r="428">
-      <c r="A428" s="8"/>
+      <c r="A428" s="7"/>
     </row>
     <row r="429">
-      <c r="A429" s="8"/>
+      <c r="A429" s="7"/>
     </row>
     <row r="430">
-      <c r="A430" s="8"/>
+      <c r="A430" s="7"/>
     </row>
     <row r="431">
-      <c r="A431" s="8"/>
+      <c r="A431" s="7"/>
     </row>
     <row r="432">
-      <c r="A432" s="8"/>
+      <c r="A432" s="7"/>
     </row>
     <row r="433">
-      <c r="A433" s="8"/>
+      <c r="A433" s="7"/>
     </row>
     <row r="434">
-      <c r="A434" s="8"/>
+      <c r="A434" s="7"/>
     </row>
     <row r="435">
-      <c r="A435" s="8"/>
+      <c r="A435" s="7"/>
     </row>
     <row r="436">
-      <c r="A436" s="8"/>
+      <c r="A436" s="7"/>
     </row>
     <row r="437">
-      <c r="A437" s="8"/>
+      <c r="A437" s="7"/>
     </row>
     <row r="438">
-      <c r="A438" s="8"/>
+      <c r="A438" s="7"/>
     </row>
     <row r="439">
-      <c r="A439" s="8"/>
+      <c r="A439" s="7"/>
     </row>
     <row r="440">
-      <c r="A440" s="8"/>
+      <c r="A440" s="7"/>
     </row>
     <row r="441">
-      <c r="A441" s="8"/>
+      <c r="A441" s="7"/>
     </row>
     <row r="442">
-      <c r="A442" s="8"/>
+      <c r="A442" s="7"/>
     </row>
     <row r="443">
-      <c r="A443" s="8"/>
+      <c r="A443" s="7"/>
     </row>
     <row r="444">
-      <c r="A444" s="8"/>
+      <c r="A444" s="7"/>
     </row>
     <row r="445">
-      <c r="A445" s="8"/>
+      <c r="A445" s="7"/>
     </row>
     <row r="446">
-      <c r="A446" s="8"/>
+      <c r="A446" s="7"/>
     </row>
     <row r="447">
-      <c r="A447" s="8"/>
+      <c r="A447" s="7"/>
     </row>
     <row r="448">
-      <c r="A448" s="8"/>
+      <c r="A448" s="7"/>
     </row>
     <row r="449">
-      <c r="A449" s="8"/>
+      <c r="A449" s="7"/>
     </row>
     <row r="450">
-      <c r="A450" s="8"/>
+      <c r="A450" s="7"/>
     </row>
     <row r="451">
-      <c r="A451" s="8"/>
+      <c r="A451" s="7"/>
     </row>
     <row r="452">
-      <c r="A452" s="8"/>
+      <c r="A452" s="7"/>
     </row>
     <row r="453">
-      <c r="A453" s="8"/>
+      <c r="A453" s="7"/>
     </row>
     <row r="454">
-      <c r="A454" s="8"/>
+      <c r="A454" s="7"/>
     </row>
     <row r="455">
-      <c r="A455" s="8"/>
+      <c r="A455" s="7"/>
     </row>
     <row r="456">
-      <c r="A456" s="8"/>
+      <c r="A456" s="7"/>
     </row>
     <row r="457">
-      <c r="A457" s="8"/>
+      <c r="A457" s="7"/>
     </row>
     <row r="458">
-      <c r="A458" s="8"/>
+      <c r="A458" s="7"/>
     </row>
     <row r="459">
-      <c r="A459" s="8"/>
+      <c r="A459" s="7"/>
     </row>
     <row r="460">
-      <c r="A460" s="8"/>
+      <c r="A460" s="7"/>
     </row>
     <row r="461">
-      <c r="A461" s="8"/>
+      <c r="A461" s="7"/>
     </row>
     <row r="462">
-      <c r="A462" s="8"/>
+      <c r="A462" s="7"/>
     </row>
     <row r="463">
-      <c r="A463" s="8"/>
+      <c r="A463" s="7"/>
     </row>
     <row r="464">
-      <c r="A464" s="8"/>
+      <c r="A464" s="7"/>
     </row>
     <row r="465">
-      <c r="A465" s="8"/>
+      <c r="A465" s="7"/>
     </row>
     <row r="466">
-      <c r="A466" s="8"/>
+      <c r="A466" s="7"/>
     </row>
     <row r="467">
-      <c r="A467" s="8"/>
+      <c r="A467" s="7"/>
     </row>
     <row r="468">
-      <c r="A468" s="8"/>
+      <c r="A468" s="7"/>
     </row>
     <row r="469">
-      <c r="A469" s="8"/>
+      <c r="A469" s="7"/>
     </row>
     <row r="470">
-      <c r="A470" s="8"/>
+      <c r="A470" s="7"/>
     </row>
     <row r="471">
-      <c r="A471" s="8"/>
+      <c r="A471" s="7"/>
     </row>
     <row r="472">
-      <c r="A472" s="8"/>
+      <c r="A472" s="7"/>
     </row>
     <row r="473">
-      <c r="A473" s="8"/>
+      <c r="A473" s="7"/>
     </row>
     <row r="474">
-      <c r="A474" s="8"/>
+      <c r="A474" s="7"/>
     </row>
     <row r="475">
-      <c r="A475" s="8"/>
+      <c r="A475" s="7"/>
     </row>
     <row r="476">
-      <c r="A476" s="8"/>
+      <c r="A476" s="7"/>
     </row>
     <row r="477">
-      <c r="A477" s="8"/>
+      <c r="A477" s="7"/>
     </row>
     <row r="478">
-      <c r="A478" s="8"/>
+      <c r="A478" s="7"/>
     </row>
     <row r="479">
-      <c r="A479" s="8"/>
+      <c r="A479" s="7"/>
     </row>
     <row r="480">
-      <c r="A480" s="8"/>
+      <c r="A480" s="7"/>
     </row>
     <row r="481">
-      <c r="A481" s="8"/>
+      <c r="A481" s="7"/>
     </row>
     <row r="482">
-      <c r="A482" s="8"/>
+      <c r="A482" s="7"/>
     </row>
     <row r="483">
-      <c r="A483" s="8"/>
+      <c r="A483" s="7"/>
     </row>
     <row r="484">
-      <c r="A484" s="8"/>
+      <c r="A484" s="7"/>
     </row>
     <row r="485">
-      <c r="A485" s="8"/>
+      <c r="A485" s="7"/>
     </row>
     <row r="486">
-      <c r="A486" s="8"/>
+      <c r="A486" s="7"/>
     </row>
     <row r="487">
-      <c r="A487" s="8"/>
+      <c r="A487" s="7"/>
     </row>
     <row r="488">
-      <c r="A488" s="8"/>
+      <c r="A488" s="7"/>
     </row>
     <row r="489">
-      <c r="A489" s="8"/>
+      <c r="A489" s="7"/>
     </row>
     <row r="490">
-      <c r="A490" s="8"/>
+      <c r="A490" s="7"/>
     </row>
     <row r="491">
-      <c r="A491" s="8"/>
+      <c r="A491" s="7"/>
     </row>
     <row r="492">
-      <c r="A492" s="8"/>
+      <c r="A492" s="7"/>
     </row>
     <row r="493">
-      <c r="A493" s="8"/>
+      <c r="A493" s="7"/>
     </row>
     <row r="494">
-      <c r="A494" s="8"/>
+      <c r="A494" s="7"/>
     </row>
     <row r="495">
-      <c r="A495" s="8"/>
+      <c r="A495" s="7"/>
     </row>
     <row r="496">
-      <c r="A496" s="8"/>
+      <c r="A496" s="7"/>
     </row>
     <row r="497">
-      <c r="A497" s="8"/>
+      <c r="A497" s="7"/>
     </row>
     <row r="498">
-      <c r="A498" s="8"/>
+      <c r="A498" s="7"/>
     </row>
     <row r="499">
-      <c r="A499" s="8"/>
+      <c r="A499" s="7"/>
     </row>
     <row r="500">
-      <c r="A500" s="8"/>
+      <c r="A500" s="7"/>
     </row>
     <row r="501">
-      <c r="A501" s="8"/>
+      <c r="A501" s="7"/>
     </row>
     <row r="502">
-      <c r="A502" s="8"/>
+      <c r="A502" s="7"/>
     </row>
     <row r="503">
-      <c r="A503" s="8"/>
+      <c r="A503" s="7"/>
     </row>
     <row r="504">
-      <c r="A504" s="8"/>
+      <c r="A504" s="7"/>
     </row>
     <row r="505">
-      <c r="A505" s="8"/>
+      <c r="A505" s="7"/>
     </row>
     <row r="506">
-      <c r="A506" s="8"/>
+      <c r="A506" s="7"/>
     </row>
     <row r="507">
-      <c r="A507" s="8"/>
+      <c r="A507" s="7"/>
     </row>
     <row r="508">
-      <c r="A508" s="8"/>
+      <c r="A508" s="7"/>
     </row>
     <row r="509">
-      <c r="A509" s="8"/>
+      <c r="A509" s="7"/>
     </row>
     <row r="510">
-      <c r="A510" s="8"/>
+      <c r="A510" s="7"/>
     </row>
     <row r="511">
-      <c r="A511" s="8"/>
+      <c r="A511" s="7"/>
     </row>
     <row r="512">
-      <c r="A512" s="8"/>
+      <c r="A512" s="7"/>
     </row>
     <row r="513">
-      <c r="A513" s="8"/>
+      <c r="A513" s="7"/>
     </row>
     <row r="514">
-      <c r="A514" s="8"/>
+      <c r="A514" s="7"/>
     </row>
     <row r="515">
-      <c r="A515" s="8"/>
+      <c r="A515" s="7"/>
     </row>
     <row r="516">
-      <c r="A516" s="8"/>
+      <c r="A516" s="7"/>
     </row>
     <row r="517">
-      <c r="A517" s="8"/>
+      <c r="A517" s="7"/>
     </row>
     <row r="518">
-      <c r="A518" s="8"/>
+      <c r="A518" s="7"/>
     </row>
     <row r="519">
-      <c r="A519" s="8"/>
+      <c r="A519" s="7"/>
     </row>
     <row r="520">
-      <c r="A520" s="8"/>
+      <c r="A520" s="7"/>
     </row>
     <row r="521">
-      <c r="A521" s="8"/>
+      <c r="A521" s="7"/>
     </row>
     <row r="522">
-      <c r="A522" s="8"/>
+      <c r="A522" s="7"/>
     </row>
     <row r="523">
-      <c r="A523" s="8"/>
+      <c r="A523" s="7"/>
     </row>
     <row r="524">
-      <c r="A524" s="8"/>
+      <c r="A524" s="7"/>
     </row>
     <row r="525">
-      <c r="A525" s="8"/>
+      <c r="A525" s="7"/>
     </row>
     <row r="526">
-      <c r="A526" s="8"/>
+      <c r="A526" s="7"/>
     </row>
     <row r="527">
-      <c r="A527" s="8"/>
+      <c r="A527" s="7"/>
     </row>
     <row r="528">
-      <c r="A528" s="8"/>
+      <c r="A528" s="7"/>
     </row>
     <row r="529">
-      <c r="A529" s="8"/>
+      <c r="A529" s="7"/>
     </row>
     <row r="530">
-      <c r="A530" s="8"/>
+      <c r="A530" s="7"/>
     </row>
     <row r="531">
-      <c r="A531" s="8"/>
+      <c r="A531" s="7"/>
     </row>
     <row r="532">
-      <c r="A532" s="8"/>
+      <c r="A532" s="7"/>
     </row>
     <row r="533">
-      <c r="A533" s="8"/>
+      <c r="A533" s="7"/>
     </row>
     <row r="534">
-      <c r="A534" s="8"/>
+      <c r="A534" s="7"/>
     </row>
     <row r="535">
-      <c r="A535" s="8"/>
+      <c r="A535" s="7"/>
     </row>
     <row r="536">
-      <c r="A536" s="8"/>
+      <c r="A536" s="7"/>
     </row>
     <row r="537">
-      <c r="A537" s="8"/>
+      <c r="A537" s="7"/>
     </row>
     <row r="538">
-      <c r="A538" s="8"/>
+      <c r="A538" s="7"/>
     </row>
     <row r="539">
-      <c r="A539" s="8"/>
+      <c r="A539" s="7"/>
     </row>
     <row r="540">
-      <c r="A540" s="8"/>
+      <c r="A540" s="7"/>
     </row>
     <row r="541">
-      <c r="A541" s="8"/>
+      <c r="A541" s="7"/>
     </row>
     <row r="542">
-      <c r="A542" s="8"/>
+      <c r="A542" s="7"/>
     </row>
     <row r="543">
-      <c r="A543" s="8"/>
+      <c r="A543" s="7"/>
     </row>
     <row r="544">
-      <c r="A544" s="8"/>
+      <c r="A544" s="7"/>
     </row>
     <row r="545">
-      <c r="A545" s="8"/>
+      <c r="A545" s="7"/>
     </row>
     <row r="546">
-      <c r="A546" s="8"/>
+      <c r="A546" s="7"/>
     </row>
     <row r="547">
-      <c r="A547" s="8"/>
+      <c r="A547" s="7"/>
     </row>
     <row r="548">
-      <c r="A548" s="8"/>
+      <c r="A548" s="7"/>
     </row>
     <row r="549">
-      <c r="A549" s="8"/>
+      <c r="A549" s="7"/>
     </row>
     <row r="550">
-      <c r="A550" s="8"/>
+      <c r="A550" s="7"/>
     </row>
     <row r="551">
-      <c r="A551" s="8"/>
+      <c r="A551" s="7"/>
     </row>
     <row r="552">
-      <c r="A552" s="8"/>
+      <c r="A552" s="7"/>
     </row>
     <row r="553">
-      <c r="A553" s="8"/>
+      <c r="A553" s="7"/>
     </row>
     <row r="554">
-      <c r="A554" s="8"/>
+      <c r="A554" s="7"/>
     </row>
     <row r="555">
-      <c r="A555" s="8"/>
+      <c r="A555" s="7"/>
     </row>
     <row r="556">
-      <c r="A556" s="8"/>
+      <c r="A556" s="7"/>
     </row>
     <row r="557">
-      <c r="A557" s="8"/>
+      <c r="A557" s="7"/>
     </row>
     <row r="558">
-      <c r="A558" s="8"/>
+      <c r="A558" s="7"/>
     </row>
     <row r="559">
-      <c r="A559" s="8"/>
+      <c r="A559" s="7"/>
     </row>
     <row r="560">
-      <c r="A560" s="8"/>
+      <c r="A560" s="7"/>
     </row>
     <row r="561">
-      <c r="A561" s="8"/>
+      <c r="A561" s="7"/>
     </row>
     <row r="562">
-      <c r="A562" s="8"/>
+      <c r="A562" s="7"/>
     </row>
     <row r="563">
-      <c r="A563" s="8"/>
+      <c r="A563" s="7"/>
     </row>
     <row r="564">
-      <c r="A564" s="8"/>
+      <c r="A564" s="7"/>
     </row>
     <row r="565">
-      <c r="A565" s="8"/>
+      <c r="A565" s="7"/>
     </row>
     <row r="566">
-      <c r="A566" s="8"/>
+      <c r="A566" s="7"/>
     </row>
     <row r="567">
-      <c r="A567" s="8"/>
+      <c r="A567" s="7"/>
     </row>
     <row r="568">
-      <c r="A568" s="8"/>
+      <c r="A568" s="7"/>
     </row>
     <row r="569">
-      <c r="A569" s="8"/>
+      <c r="A569" s="7"/>
     </row>
     <row r="570">
-      <c r="A570" s="8"/>
+      <c r="A570" s="7"/>
     </row>
     <row r="571">
-      <c r="A571" s="8"/>
+      <c r="A571" s="7"/>
     </row>
     <row r="572">
-      <c r="A572" s="8"/>
+      <c r="A572" s="7"/>
     </row>
     <row r="573">
-      <c r="A573" s="8"/>
+      <c r="A573" s="7"/>
     </row>
     <row r="574">
-      <c r="A574" s="8"/>
+      <c r="A574" s="7"/>
     </row>
     <row r="575">
-      <c r="A575" s="8"/>
+      <c r="A575" s="7"/>
     </row>
     <row r="576">
-      <c r="A576" s="8"/>
+      <c r="A576" s="7"/>
     </row>
     <row r="577">
-      <c r="A577" s="8"/>
+      <c r="A577" s="7"/>
     </row>
     <row r="578">
-      <c r="A578" s="8"/>
+      <c r="A578" s="7"/>
     </row>
     <row r="579">
-      <c r="A579" s="8"/>
+      <c r="A579" s="7"/>
     </row>
     <row r="580">
-      <c r="A580" s="8"/>
+      <c r="A580" s="7"/>
     </row>
     <row r="581">
-      <c r="A581" s="8"/>
+      <c r="A581" s="7"/>
     </row>
     <row r="582">
-      <c r="A582" s="8"/>
+      <c r="A582" s="7"/>
     </row>
     <row r="583">
-      <c r="A583" s="8"/>
+      <c r="A583" s="7"/>
     </row>
     <row r="584">
-      <c r="A584" s="8"/>
+      <c r="A584" s="7"/>
     </row>
     <row r="585">
-      <c r="A585" s="8"/>
+      <c r="A585" s="7"/>
     </row>
     <row r="586">
-      <c r="A586" s="8"/>
+      <c r="A586" s="7"/>
     </row>
     <row r="587">
-      <c r="A587" s="8"/>
+      <c r="A587" s="7"/>
     </row>
     <row r="588">
-      <c r="A588" s="8"/>
+      <c r="A588" s="7"/>
     </row>
     <row r="589">
-      <c r="A589" s="8"/>
+      <c r="A589" s="7"/>
     </row>
     <row r="590">
-      <c r="A590" s="8"/>
+      <c r="A590" s="7"/>
     </row>
     <row r="591">
-      <c r="A591" s="8"/>
+      <c r="A591" s="7"/>
     </row>
     <row r="592">
-      <c r="A592" s="8"/>
+      <c r="A592" s="7"/>
     </row>
     <row r="593">
-      <c r="A593" s="8"/>
+      <c r="A593" s="7"/>
     </row>
     <row r="594">
-      <c r="A594" s="8"/>
+      <c r="A594" s="7"/>
     </row>
     <row r="595">
-      <c r="A595" s="8"/>
+      <c r="A595" s="7"/>
     </row>
     <row r="596">
-      <c r="A596" s="8"/>
+      <c r="A596" s="7"/>
     </row>
     <row r="597">
-      <c r="A597" s="8"/>
+      <c r="A597" s="7"/>
     </row>
     <row r="598">
-      <c r="A598" s="8"/>
+      <c r="A598" s="7"/>
     </row>
     <row r="599">
-      <c r="A599" s="8"/>
+      <c r="A599" s="7"/>
     </row>
     <row r="600">
-      <c r="A600" s="8"/>
+      <c r="A600" s="7"/>
     </row>
     <row r="601">
-      <c r="A601" s="8"/>
+      <c r="A601" s="7"/>
     </row>
     <row r="602">
-      <c r="A602" s="8"/>
+      <c r="A602" s="7"/>
     </row>
     <row r="603">
-      <c r="A603" s="8"/>
+      <c r="A603" s="7"/>
     </row>
     <row r="604">
-      <c r="A604" s="8"/>
+      <c r="A604" s="7"/>
     </row>
     <row r="605">
-      <c r="A605" s="8"/>
+      <c r="A605" s="7"/>
     </row>
     <row r="606">
-      <c r="A606" s="8"/>
+      <c r="A606" s="7"/>
     </row>
     <row r="607">
-      <c r="A607" s="8"/>
+      <c r="A607" s="7"/>
     </row>
     <row r="608">
-      <c r="A608" s="8"/>
+      <c r="A608" s="7"/>
     </row>
     <row r="609">
-      <c r="A609" s="8"/>
+      <c r="A609" s="7"/>
     </row>
     <row r="610">
-      <c r="A610" s="8"/>
+      <c r="A610" s="7"/>
     </row>
     <row r="611">
-      <c r="A611" s="8"/>
+      <c r="A611" s="7"/>
     </row>
     <row r="612">
-      <c r="A612" s="8"/>
+      <c r="A612" s="7"/>
     </row>
     <row r="613">
-      <c r="A613" s="8"/>
+      <c r="A613" s="7"/>
     </row>
     <row r="614">
-      <c r="A614" s="8"/>
+      <c r="A614" s="7"/>
     </row>
     <row r="615">
-      <c r="A615" s="8"/>
+      <c r="A615" s="7"/>
     </row>
     <row r="616">
-      <c r="A616" s="8"/>
+      <c r="A616" s="7"/>
     </row>
     <row r="617">
-      <c r="A617" s="8"/>
+      <c r="A617" s="7"/>
     </row>
     <row r="618">
-      <c r="A618" s="8"/>
+      <c r="A618" s="7"/>
     </row>
     <row r="619">
-      <c r="A619" s="8"/>
+      <c r="A619" s="7"/>
     </row>
     <row r="620">
-      <c r="A620" s="8"/>
+      <c r="A620" s="7"/>
     </row>
     <row r="621">
-      <c r="A621" s="8"/>
+      <c r="A621" s="7"/>
     </row>
     <row r="622">
-      <c r="A622" s="8"/>
+      <c r="A622" s="7"/>
     </row>
     <row r="623">
-      <c r="A623" s="8"/>
+      <c r="A623" s="7"/>
     </row>
     <row r="624">
-      <c r="A624" s="8"/>
+      <c r="A624" s="7"/>
     </row>
     <row r="625">
-      <c r="A625" s="8"/>
+      <c r="A625" s="7"/>
     </row>
     <row r="626">
-      <c r="A626" s="8"/>
+      <c r="A626" s="7"/>
     </row>
     <row r="627">
-      <c r="A627" s="8"/>
+      <c r="A627" s="7"/>
     </row>
     <row r="628">
-      <c r="A628" s="8"/>
+      <c r="A628" s="7"/>
     </row>
     <row r="629">
-      <c r="A629" s="8"/>
+      <c r="A629" s="7"/>
     </row>
     <row r="630">
-      <c r="A630" s="8"/>
+      <c r="A630" s="7"/>
     </row>
     <row r="631">
-      <c r="A631" s="8"/>
+      <c r="A631" s="7"/>
     </row>
     <row r="632">
-      <c r="A632" s="8"/>
+      <c r="A632" s="7"/>
     </row>
     <row r="633">
-      <c r="A633" s="8"/>
+      <c r="A633" s="7"/>
     </row>
     <row r="634">
-      <c r="A634" s="8"/>
+      <c r="A634" s="7"/>
     </row>
     <row r="635">
-      <c r="A635" s="8"/>
+      <c r="A635" s="7"/>
     </row>
     <row r="636">
-      <c r="A636" s="8"/>
+      <c r="A636" s="7"/>
     </row>
     <row r="637">
-      <c r="A637" s="8"/>
+      <c r="A637" s="7"/>
     </row>
     <row r="638">
-      <c r="A638" s="8"/>
+      <c r="A638" s="7"/>
     </row>
     <row r="639">
-      <c r="A639" s="8"/>
+      <c r="A639" s="7"/>
     </row>
     <row r="640">
-      <c r="A640" s="8"/>
+      <c r="A640" s="7"/>
     </row>
     <row r="641">
-      <c r="A641" s="8"/>
+      <c r="A641" s="7"/>
     </row>
     <row r="642">
-      <c r="A642" s="8"/>
+      <c r="A642" s="7"/>
     </row>
     <row r="643">
-      <c r="A643" s="8"/>
+      <c r="A643" s="7"/>
     </row>
     <row r="644">
-      <c r="A644" s="8"/>
+      <c r="A644" s="7"/>
     </row>
     <row r="645">
-      <c r="A645" s="8"/>
+      <c r="A645" s="7"/>
     </row>
     <row r="646">
-      <c r="A646" s="8"/>
+      <c r="A646" s="7"/>
     </row>
     <row r="647">
-      <c r="A647" s="8"/>
+      <c r="A647" s="7"/>
     </row>
     <row r="648">
-      <c r="A648" s="8"/>
+      <c r="A648" s="7"/>
     </row>
     <row r="649">
-      <c r="A649" s="8"/>
+      <c r="A649" s="7"/>
     </row>
     <row r="650">
-      <c r="A650" s="8"/>
+      <c r="A650" s="7"/>
     </row>
     <row r="651">
-      <c r="A651" s="8"/>
+      <c r="A651" s="7"/>
     </row>
     <row r="652">
-      <c r="A652" s="8"/>
+      <c r="A652" s="7"/>
     </row>
     <row r="653">
-      <c r="A653" s="8"/>
+      <c r="A653" s="7"/>
     </row>
     <row r="654">
-      <c r="A654" s="8"/>
+      <c r="A654" s="7"/>
     </row>
     <row r="655">
-      <c r="A655" s="8"/>
+      <c r="A655" s="7"/>
     </row>
     <row r="656">
-      <c r="A656" s="8"/>
+      <c r="A656" s="7"/>
     </row>
     <row r="657">
-      <c r="A657" s="8"/>
+      <c r="A657" s="7"/>
     </row>
     <row r="658">
-      <c r="A658" s="8"/>
+      <c r="A658" s="7"/>
     </row>
     <row r="659">
-      <c r="A659" s="8"/>
+      <c r="A659" s="7"/>
     </row>
     <row r="660">
-      <c r="A660" s="8"/>
+      <c r="A660" s="7"/>
     </row>
     <row r="661">
-      <c r="A661" s="8"/>
+      <c r="A661" s="7"/>
     </row>
     <row r="662">
-      <c r="A662" s="8"/>
+      <c r="A662" s="7"/>
     </row>
     <row r="663">
-      <c r="A663" s="8"/>
+      <c r="A663" s="7"/>
     </row>
     <row r="664">
-      <c r="A664" s="8"/>
+      <c r="A664" s="7"/>
     </row>
     <row r="665">
-      <c r="A665" s="8"/>
+      <c r="A665" s="7"/>
     </row>
     <row r="666">
-      <c r="A666" s="8"/>
+      <c r="A666" s="7"/>
     </row>
     <row r="667">
-      <c r="A667" s="8"/>
+      <c r="A667" s="7"/>
     </row>
     <row r="668">
-      <c r="A668" s="8"/>
+      <c r="A668" s="7"/>
     </row>
     <row r="669">
-      <c r="A669" s="8"/>
+      <c r="A669" s="7"/>
     </row>
     <row r="670">
-      <c r="A670" s="8"/>
+      <c r="A670" s="7"/>
     </row>
     <row r="671">
-      <c r="A671" s="8"/>
+      <c r="A671" s="7"/>
     </row>
     <row r="672">
-      <c r="A672" s="8"/>
+      <c r="A672" s="7"/>
     </row>
     <row r="673">
-      <c r="A673" s="8"/>
+      <c r="A673" s="7"/>
     </row>
     <row r="674">
-      <c r="A674" s="8"/>
+      <c r="A674" s="7"/>
     </row>
     <row r="675">
-      <c r="A675" s="8"/>
+      <c r="A675" s="7"/>
     </row>
     <row r="676">
-      <c r="A676" s="8"/>
+      <c r="A676" s="7"/>
     </row>
     <row r="677">
-      <c r="A677" s="8"/>
+      <c r="A677" s="7"/>
     </row>
     <row r="678">
-      <c r="A678" s="8"/>
+      <c r="A678" s="7"/>
     </row>
     <row r="679">
-      <c r="A679" s="8"/>
+      <c r="A679" s="7"/>
     </row>
     <row r="680">
-      <c r="A680" s="8"/>
+      <c r="A680" s="7"/>
     </row>
     <row r="681">
-      <c r="A681" s="8"/>
+      <c r="A681" s="7"/>
     </row>
     <row r="682">
-      <c r="A682" s="8"/>
+      <c r="A682" s="7"/>
     </row>
     <row r="683">
-      <c r="A683" s="8"/>
+      <c r="A683" s="7"/>
     </row>
     <row r="684">
-      <c r="A684" s="8"/>
+      <c r="A684" s="7"/>
     </row>
     <row r="685">
-      <c r="A685" s="8"/>
+      <c r="A685" s="7"/>
     </row>
     <row r="686">
-      <c r="A686" s="8"/>
+      <c r="A686" s="7"/>
     </row>
     <row r="687">
-      <c r="A687" s="8"/>
+      <c r="A687" s="7"/>
     </row>
     <row r="688">
-      <c r="A688" s="8"/>
+      <c r="A688" s="7"/>
     </row>
     <row r="689">
-      <c r="A689" s="8"/>
+      <c r="A689" s="7"/>
     </row>
     <row r="690">
-      <c r="A690" s="8"/>
+      <c r="A690" s="7"/>
     </row>
     <row r="691">
-      <c r="A691" s="8"/>
+      <c r="A691" s="7"/>
     </row>
     <row r="692">
-      <c r="A692" s="8"/>
+      <c r="A692" s="7"/>
     </row>
     <row r="693">
-      <c r="A693" s="8"/>
+      <c r="A693" s="7"/>
     </row>
     <row r="694">
-      <c r="A694" s="8"/>
+      <c r="A694" s="7"/>
     </row>
     <row r="695">
-      <c r="A695" s="8"/>
+      <c r="A695" s="7"/>
     </row>
     <row r="696">
-      <c r="A696" s="8"/>
+      <c r="A696" s="7"/>
     </row>
     <row r="697">
-      <c r="A697" s="8"/>
+      <c r="A697" s="7"/>
     </row>
     <row r="698">
-      <c r="A698" s="8"/>
+      <c r="A698" s="7"/>
     </row>
     <row r="699">
-      <c r="A699" s="8"/>
+      <c r="A699" s="7"/>
     </row>
     <row r="700">
-      <c r="A700" s="8"/>
+      <c r="A700" s="7"/>
     </row>
     <row r="701">
-      <c r="A701" s="8"/>
+      <c r="A701" s="7"/>
     </row>
     <row r="702">
-      <c r="A702" s="8"/>
+      <c r="A702" s="7"/>
     </row>
     <row r="703">
-      <c r="A703" s="8"/>
+      <c r="A703" s="7"/>
     </row>
     <row r="704">
-      <c r="A704" s="8"/>
+      <c r="A704" s="7"/>
     </row>
     <row r="705">
-      <c r="A705" s="8"/>
+      <c r="A705" s="7"/>
     </row>
     <row r="706">
-      <c r="A706" s="8"/>
+      <c r="A706" s="7"/>
     </row>
     <row r="707">
-      <c r="A707" s="8"/>
+      <c r="A707" s="7"/>
     </row>
     <row r="708">
-      <c r="A708" s="8"/>
+      <c r="A708" s="7"/>
     </row>
     <row r="709">
-      <c r="A709" s="8"/>
+      <c r="A709" s="7"/>
     </row>
     <row r="710">
-      <c r="A710" s="8"/>
+      <c r="A710" s="7"/>
     </row>
     <row r="711">
-      <c r="A711" s="8"/>
+      <c r="A711" s="7"/>
     </row>
     <row r="712">
-      <c r="A712" s="8"/>
+      <c r="A712" s="7"/>
     </row>
     <row r="713">
-      <c r="A713" s="8"/>
+      <c r="A713" s="7"/>
     </row>
     <row r="714">
-      <c r="A714" s="8"/>
+      <c r="A714" s="7"/>
     </row>
     <row r="715">
-      <c r="A715" s="8"/>
+      <c r="A715" s="7"/>
     </row>
     <row r="716">
-      <c r="A716" s="8"/>
+      <c r="A716" s="7"/>
     </row>
     <row r="717">
-      <c r="A717" s="8"/>
+      <c r="A717" s="7"/>
     </row>
     <row r="718">
-      <c r="A718" s="8"/>
+      <c r="A718" s="7"/>
     </row>
     <row r="719">
-      <c r="A719" s="8"/>
+      <c r="A719" s="7"/>
     </row>
     <row r="720">
-      <c r="A720" s="8"/>
+      <c r="A720" s="7"/>
     </row>
     <row r="721">
-      <c r="A721" s="8"/>
+      <c r="A721" s="7"/>
     </row>
     <row r="722">
-      <c r="A722" s="8"/>
+      <c r="A722" s="7"/>
     </row>
     <row r="723">
-      <c r="A723" s="8"/>
+      <c r="A723" s="7"/>
     </row>
     <row r="724">
-      <c r="A724" s="8"/>
+      <c r="A724" s="7"/>
     </row>
     <row r="725">
-      <c r="A725" s="8"/>
+      <c r="A725" s="7"/>
     </row>
     <row r="726">
-      <c r="A726" s="8"/>
+      <c r="A726" s="7"/>
     </row>
     <row r="727">
-      <c r="A727" s="8"/>
+      <c r="A727" s="7"/>
     </row>
     <row r="728">
-      <c r="A728" s="8"/>
+      <c r="A728" s="7"/>
     </row>
     <row r="729">
-      <c r="A729" s="8"/>
+      <c r="A729" s="7"/>
     </row>
     <row r="730">
-      <c r="A730" s="8"/>
+      <c r="A730" s="7"/>
     </row>
     <row r="731">
-      <c r="A731" s="8"/>
+      <c r="A731" s="7"/>
     </row>
     <row r="732">
-      <c r="A732" s="8"/>
+      <c r="A732" s="7"/>
     </row>
     <row r="733">
-      <c r="A733" s="8"/>
+      <c r="A733" s="7"/>
     </row>
     <row r="734">
-      <c r="A734" s="8"/>
+      <c r="A734" s="7"/>
     </row>
     <row r="735">
-      <c r="A735" s="8"/>
+      <c r="A735" s="7"/>
     </row>
     <row r="736">
-      <c r="A736" s="8"/>
+      <c r="A736" s="7"/>
     </row>
     <row r="737">
-      <c r="A737" s="8"/>
+      <c r="A737" s="7"/>
     </row>
     <row r="738">
-      <c r="A738" s="8"/>
+      <c r="A738" s="7"/>
     </row>
     <row r="739">
-      <c r="A739" s="8"/>
+      <c r="A739" s="7"/>
     </row>
     <row r="740">
-      <c r="A740" s="8"/>
+      <c r="A740" s="7"/>
     </row>
     <row r="741">
-      <c r="A741" s="8"/>
+      <c r="A741" s="7"/>
     </row>
     <row r="742">
-      <c r="A742" s="8"/>
+      <c r="A742" s="7"/>
     </row>
     <row r="743">
-      <c r="A743" s="8"/>
+      <c r="A743" s="7"/>
     </row>
     <row r="744">
-      <c r="A744" s="8"/>
+      <c r="A744" s="7"/>
     </row>
     <row r="745">
-      <c r="A745" s="8"/>
+      <c r="A745" s="7"/>
     </row>
     <row r="746">
-      <c r="A746" s="8"/>
+      <c r="A746" s="7"/>
     </row>
     <row r="747">
-      <c r="A747" s="8"/>
+      <c r="A747" s="7"/>
     </row>
     <row r="748">
-      <c r="A748" s="8"/>
+      <c r="A748" s="7"/>
     </row>
     <row r="749">
-      <c r="A749" s="8"/>
+      <c r="A749" s="7"/>
     </row>
     <row r="750">
-      <c r="A750" s="8"/>
+      <c r="A750" s="7"/>
     </row>
     <row r="751">
-      <c r="A751" s="8"/>
+      <c r="A751" s="7"/>
     </row>
     <row r="752">
-      <c r="A752" s="8"/>
+      <c r="A752" s="7"/>
     </row>
     <row r="753">
-      <c r="A753" s="8"/>
+      <c r="A753" s="7"/>
     </row>
     <row r="754">
-      <c r="A754" s="8"/>
+      <c r="A754" s="7"/>
     </row>
     <row r="755">
-      <c r="A755" s="8"/>
+      <c r="A755" s="7"/>
     </row>
     <row r="756">
-      <c r="A756" s="8"/>
+      <c r="A756" s="7"/>
     </row>
     <row r="757">
-      <c r="A757" s="8"/>
+      <c r="A757" s="7"/>
     </row>
     <row r="758">
-      <c r="A758" s="8"/>
+      <c r="A758" s="7"/>
     </row>
     <row r="759">
-      <c r="A759" s="8"/>
+      <c r="A759" s="7"/>
     </row>
     <row r="760">
-      <c r="A760" s="8"/>
+      <c r="A760" s="7"/>
     </row>
     <row r="761">
-      <c r="A761" s="8"/>
+      <c r="A761" s="7"/>
     </row>
     <row r="762">
-      <c r="A762" s="8"/>
+      <c r="A762" s="7"/>
     </row>
     <row r="763">
-      <c r="A763" s="8"/>
+      <c r="A763" s="7"/>
     </row>
     <row r="764">
-      <c r="A764" s="8"/>
+      <c r="A764" s="7"/>
     </row>
     <row r="765">
-      <c r="A765" s="8"/>
+      <c r="A765" s="7"/>
     </row>
     <row r="766">
-      <c r="A766" s="8"/>
+      <c r="A766" s="7"/>
     </row>
     <row r="767">
-      <c r="A767" s="8"/>
+      <c r="A767" s="7"/>
     </row>
     <row r="768">
-      <c r="A768" s="8"/>
+      <c r="A768" s="7"/>
     </row>
     <row r="769">
-      <c r="A769" s="8"/>
+      <c r="A769" s="7"/>
     </row>
     <row r="770">
-      <c r="A770" s="8"/>
+      <c r="A770" s="7"/>
     </row>
     <row r="771">
-      <c r="A771" s="8"/>
+      <c r="A771" s="7"/>
     </row>
     <row r="772">
-      <c r="A772" s="8"/>
+      <c r="A772" s="7"/>
     </row>
     <row r="773">
-      <c r="A773" s="8"/>
+      <c r="A773" s="7"/>
     </row>
     <row r="774">
-      <c r="A774" s="8"/>
+      <c r="A774" s="7"/>
     </row>
     <row r="775">
-      <c r="A775" s="8"/>
+      <c r="A775" s="7"/>
     </row>
     <row r="776">
-      <c r="A776" s="8"/>
+      <c r="A776" s="7"/>
     </row>
     <row r="777">
-      <c r="A777" s="8"/>
+      <c r="A777" s="7"/>
     </row>
     <row r="778">
-      <c r="A778" s="8"/>
+      <c r="A778" s="7"/>
     </row>
     <row r="779">
-      <c r="A779" s="8"/>
+      <c r="A779" s="7"/>
     </row>
     <row r="780">
-      <c r="A780" s="8"/>
+      <c r="A780" s="7"/>
     </row>
     <row r="781">
-      <c r="A781" s="8"/>
+      <c r="A781" s="7"/>
     </row>
     <row r="782">
-      <c r="A782" s="8"/>
+      <c r="A782" s="7"/>
     </row>
     <row r="783">
-      <c r="A783" s="8"/>
+      <c r="A783" s="7"/>
     </row>
     <row r="784">
-      <c r="A784" s="8"/>
+      <c r="A784" s="7"/>
     </row>
     <row r="785">
-      <c r="A785" s="8"/>
+      <c r="A785" s="7"/>
     </row>
     <row r="786">
-      <c r="A786" s="8"/>
+      <c r="A786" s="7"/>
     </row>
     <row r="787">
-      <c r="A787" s="8"/>
+      <c r="A787" s="7"/>
     </row>
     <row r="788">
-      <c r="A788" s="8"/>
+      <c r="A788" s="7"/>
     </row>
     <row r="789">
-      <c r="A789" s="8"/>
+      <c r="A789" s="7"/>
     </row>
     <row r="790">
-      <c r="A790" s="8"/>
+      <c r="A790" s="7"/>
     </row>
     <row r="791">
-      <c r="A791" s="8"/>
+      <c r="A791" s="7"/>
     </row>
     <row r="792">
-      <c r="A792" s="8"/>
+      <c r="A792" s="7"/>
     </row>
     <row r="793">
-      <c r="A793" s="8"/>
+      <c r="A793" s="7"/>
     </row>
     <row r="794">
-      <c r="A794" s="8"/>
+      <c r="A794" s="7"/>
     </row>
     <row r="795">
-      <c r="A795" s="8"/>
+      <c r="A795" s="7"/>
     </row>
     <row r="796">
-      <c r="A796" s="8"/>
+      <c r="A796" s="7"/>
     </row>
     <row r="797">
-      <c r="A797" s="8"/>
+      <c r="A797" s="7"/>
     </row>
     <row r="798">
-      <c r="A798" s="8"/>
+      <c r="A798" s="7"/>
     </row>
     <row r="799">
-      <c r="A799" s="8"/>
+      <c r="A799" s="7"/>
     </row>
     <row r="800">
-      <c r="A800" s="8"/>
+      <c r="A800" s="7"/>
     </row>
     <row r="801">
-      <c r="A801" s="8"/>
+      <c r="A801" s="7"/>
     </row>
     <row r="802">
-      <c r="A802" s="8"/>
+      <c r="A802" s="7"/>
     </row>
     <row r="803">
-      <c r="A803" s="8"/>
+      <c r="A803" s="7"/>
     </row>
     <row r="804">
-      <c r="A804" s="8"/>
+      <c r="A804" s="7"/>
     </row>
     <row r="805">
-      <c r="A805" s="8"/>
+      <c r="A805" s="7"/>
     </row>
     <row r="806">
-      <c r="A806" s="8"/>
+      <c r="A806" s="7"/>
     </row>
     <row r="807">
-      <c r="A807" s="8"/>
+      <c r="A807" s="7"/>
     </row>
     <row r="808">
-      <c r="A808" s="8"/>
+      <c r="A808" s="7"/>
     </row>
     <row r="809">
-      <c r="A809" s="8"/>
+      <c r="A809" s="7"/>
     </row>
     <row r="810">
-      <c r="A810" s="8"/>
+      <c r="A810" s="7"/>
     </row>
     <row r="811">
-      <c r="A811" s="8"/>
+      <c r="A811" s="7"/>
     </row>
     <row r="812">
-      <c r="A812" s="8"/>
+      <c r="A812" s="7"/>
     </row>
     <row r="813">
-      <c r="A813" s="8"/>
+      <c r="A813" s="7"/>
     </row>
     <row r="814">
-      <c r="A814" s="8"/>
+      <c r="A814" s="7"/>
     </row>
     <row r="815">
-      <c r="A815" s="8"/>
+      <c r="A815" s="7"/>
     </row>
     <row r="816">
-      <c r="A816" s="8"/>
+      <c r="A816" s="7"/>
     </row>
     <row r="817">
-      <c r="A817" s="8"/>
+      <c r="A817" s="7"/>
     </row>
     <row r="818">
-      <c r="A818" s="8"/>
+      <c r="A818" s="7"/>
     </row>
     <row r="819">
-      <c r="A819" s="8"/>
+      <c r="A819" s="7"/>
     </row>
     <row r="820">
-      <c r="A820" s="8"/>
+      <c r="A820" s="7"/>
     </row>
     <row r="821">
-      <c r="A821" s="8"/>
+      <c r="A821" s="7"/>
     </row>
     <row r="822">
-      <c r="A822" s="8"/>
+      <c r="A822" s="7"/>
     </row>
     <row r="823">
-      <c r="A823" s="8"/>
+      <c r="A823" s="7"/>
     </row>
     <row r="824">
-      <c r="A824" s="8"/>
+      <c r="A824" s="7"/>
     </row>
     <row r="825">
-      <c r="A825" s="8"/>
+      <c r="A825" s="7"/>
     </row>
     <row r="826">
-      <c r="A826" s="8"/>
+      <c r="A826" s="7"/>
     </row>
     <row r="827">
-      <c r="A827" s="8"/>
+      <c r="A827" s="7"/>
     </row>
     <row r="828">
-      <c r="A828" s="8"/>
+      <c r="A828" s="7"/>
     </row>
     <row r="829">
-      <c r="A829" s="8"/>
+      <c r="A829" s="7"/>
     </row>
     <row r="830">
-      <c r="A830" s="8"/>
+      <c r="A830" s="7"/>
     </row>
     <row r="831">
-      <c r="A831" s="8"/>
+      <c r="A831" s="7"/>
     </row>
     <row r="832">
-      <c r="A832" s="8"/>
+      <c r="A832" s="7"/>
     </row>
     <row r="833">
-      <c r="A833" s="8"/>
+      <c r="A833" s="7"/>
     </row>
     <row r="834">
-      <c r="A834" s="8"/>
+      <c r="A834" s="7"/>
     </row>
     <row r="835">
-      <c r="A835" s="8"/>
+      <c r="A835" s="7"/>
     </row>
     <row r="836">
-      <c r="A836" s="8"/>
+      <c r="A836" s="7"/>
     </row>
     <row r="837">
-      <c r="A837" s="8"/>
+      <c r="A837" s="7"/>
     </row>
     <row r="838">
-      <c r="A838" s="8"/>
+      <c r="A838" s="7"/>
     </row>
     <row r="839">
-      <c r="A839" s="8"/>
+      <c r="A839" s="7"/>
     </row>
     <row r="840">
-      <c r="A840" s="8"/>
+      <c r="A840" s="7"/>
     </row>
     <row r="841">
-      <c r="A841" s="8"/>
+      <c r="A841" s="7"/>
     </row>
     <row r="842">
-      <c r="A842" s="8"/>
+      <c r="A842" s="7"/>
     </row>
     <row r="843">
-      <c r="A843" s="8"/>
+      <c r="A843" s="7"/>
     </row>
     <row r="844">
-      <c r="A844" s="8"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="8"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="8"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="8"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="8"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="8"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="8"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="8"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="8"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="8"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="8"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="8"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="8"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="8"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="8"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="8"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="8"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="8"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="8"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="8"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="8"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="8"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="8"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="8"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="8"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="8"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="8"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="8"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="8"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="8"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="8"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="8"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="8"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="8"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="8"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="8"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="8"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="8"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="8"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="8"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="8"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="8"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="8"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="8"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="8"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="8"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="8"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="8"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="8"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="8"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="8"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="8"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="8"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="8"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="8"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="8"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="8"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="8"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="8"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="8"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="8"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="8"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="8"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="8"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="8"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="8"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="8"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="8"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="8"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="8"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="8"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="8"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="8"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="8"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="8"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="8"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="8"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="8"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="8"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="8"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="8"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="8"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="8"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="8"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="8"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="8"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="8"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="8"/>
+      <c r="A844" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
